--- a/Local Train Ticketing application/CUT/UT_IT Plan Report/QMS-UT_IT_TestPlan_Reports_batch7.xlsx
+++ b/Local Train Ticketing application/CUT/UT_IT Plan Report/QMS-UT_IT_TestPlan_Reports_batch7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25825"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkoduru\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE787A1-3F10-4E45-B8ED-C186381DF53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{AFE787A1-3F10-4E45-B8ED-C186381DF53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53762025-1A49-4F1E-8637-78FFCDA0447C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="9" r:id="rId1"/>
@@ -45,6 +45,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -768,154 +770,154 @@
     <t>D01</t>
   </si>
   <si>
+    <t>USER_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So,it will display the corresponding menu </t>
+  </si>
+  <si>
+    <t>System verifies the provider and provider can add data</t>
+  </si>
+  <si>
+    <t>USER_002</t>
+  </si>
+  <si>
+    <t>User Register data</t>
+  </si>
+  <si>
+    <t>User can add data</t>
+  </si>
+  <si>
+    <t>System verifies the user and user can add data</t>
+  </si>
+  <si>
+    <t>USER_003</t>
+  </si>
+  <si>
+    <t>User edit data</t>
+  </si>
+  <si>
+    <t>User can edit data</t>
+  </si>
+  <si>
+    <t>System verifies the user and user able to edit data</t>
+  </si>
+  <si>
+    <t>Sysetm verifies the user and user able to edit data</t>
+  </si>
+  <si>
+    <t>USER_004</t>
+  </si>
+  <si>
+    <t>User delete data</t>
+  </si>
+  <si>
+    <t>User can delete data</t>
+  </si>
+  <si>
+    <t>System verifies the user and user can  delete data</t>
+  </si>
+  <si>
+    <t>Sysetm verifies the user and user can delete data</t>
+  </si>
+  <si>
+    <t>USER_005</t>
+  </si>
+  <si>
+    <t>User view data</t>
+  </si>
+  <si>
+    <t>User can view the data</t>
+  </si>
+  <si>
+    <t>System verifies the user and user can view the data</t>
+  </si>
+  <si>
+    <t>User can view data</t>
+  </si>
+  <si>
+    <t>Sysetm verifies the user and user can view data</t>
+  </si>
+  <si>
+    <t>USER_006</t>
+  </si>
+  <si>
+    <t>Go back to the menu</t>
+  </si>
+  <si>
     <t>Go back to the main menu</t>
   </si>
   <si>
+    <t>Sysetm verifies the user and user can add data</t>
+  </si>
+  <si>
+    <t>ADMIN_001</t>
+  </si>
+  <si>
+    <t>Admin enter into the system</t>
+  </si>
+  <si>
+    <t>ADMIN_002</t>
+  </si>
+  <si>
+    <t>Admin Register data</t>
+  </si>
+  <si>
+    <t>Admin can add data</t>
+  </si>
+  <si>
+    <t>System verifies the user and admin can add data</t>
+  </si>
+  <si>
+    <t>ADMIN_003</t>
+  </si>
+  <si>
+    <t>Admin edit data</t>
+  </si>
+  <si>
+    <t>Admin can edit data</t>
+  </si>
+  <si>
+    <t>System verifies the user and admin can edit data</t>
+  </si>
+  <si>
+    <t>ADMIN_004</t>
+  </si>
+  <si>
+    <t>Admin delete data</t>
+  </si>
+  <si>
+    <t>Admin can delete data</t>
+  </si>
+  <si>
+    <t>System verifies the user and admin can delete data</t>
+  </si>
+  <si>
+    <t>ADMIN_005</t>
+  </si>
+  <si>
+    <t>Admin view data</t>
+  </si>
+  <si>
+    <t>Admin can view data</t>
+  </si>
+  <si>
+    <t>System verifies the user and admin can  view data</t>
+  </si>
+  <si>
+    <t>System verifies the user and admin can view data</t>
+  </si>
+  <si>
+    <t>ADMIN_006</t>
+  </si>
+  <si>
+    <t>System verifies the user and admin can  add data</t>
+  </si>
+  <si>
     <t>UT TEST CASES</t>
   </si>
   <si>
-    <t>USER_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So,it will display the corresponding menu </t>
-  </si>
-  <si>
-    <t>System verifies the provider and provider can add data</t>
-  </si>
-  <si>
-    <t>USER_002</t>
-  </si>
-  <si>
-    <t>User Register data</t>
-  </si>
-  <si>
-    <t>User can add data</t>
-  </si>
-  <si>
-    <t>System verifies the user and user can add data</t>
-  </si>
-  <si>
-    <t>USER_003</t>
-  </si>
-  <si>
-    <t>User edit data</t>
-  </si>
-  <si>
-    <t>User can edit data</t>
-  </si>
-  <si>
-    <t>Sysetm verifies the user and user able to edit data</t>
-  </si>
-  <si>
-    <t>USER_004</t>
-  </si>
-  <si>
-    <t>User delete data</t>
-  </si>
-  <si>
-    <t>User can delete data</t>
-  </si>
-  <si>
-    <t>System verifies the user and user able to edit data</t>
-  </si>
-  <si>
-    <t>System verifies the Customer and customer can add car</t>
-  </si>
-  <si>
-    <t>System verifies the user and user can  delete data</t>
-  </si>
-  <si>
-    <t>Sysetm verifies the user and user can delete data</t>
-  </si>
-  <si>
-    <t>USER_005</t>
-  </si>
-  <si>
-    <t>User view data</t>
-  </si>
-  <si>
-    <t>User can view the data</t>
-  </si>
-  <si>
-    <t>System verifies the user and user can view the data</t>
-  </si>
-  <si>
-    <t>Sysetm verifies the user and user can view data</t>
-  </si>
-  <si>
-    <t>USER_006</t>
-  </si>
-  <si>
-    <t>Go back to the menu</t>
-  </si>
-  <si>
-    <t>User can view data</t>
-  </si>
-  <si>
-    <t>Sysetm verifies the user and user can add data</t>
-  </si>
-  <si>
-    <t>ADMIN_001</t>
-  </si>
-  <si>
-    <t>ADMIN_002</t>
-  </si>
-  <si>
-    <t>ADMIN_003</t>
-  </si>
-  <si>
-    <t>ADMIN_004</t>
-  </si>
-  <si>
-    <t>ADMIN_005</t>
-  </si>
-  <si>
-    <t>ADMIN_006</t>
-  </si>
-  <si>
-    <t>Admin enter into the system</t>
-  </si>
-  <si>
-    <t>Admin Register data</t>
-  </si>
-  <si>
-    <t>Admin can add data</t>
-  </si>
-  <si>
-    <t>System verifies the user and admin can add data</t>
-  </si>
-  <si>
-    <t>Admin edit data</t>
-  </si>
-  <si>
-    <t>Admin delete data</t>
-  </si>
-  <si>
-    <t>Admin view data</t>
-  </si>
-  <si>
-    <t>Admin can edit data</t>
-  </si>
-  <si>
-    <t>Admin can delete data</t>
-  </si>
-  <si>
-    <t>Admin can view data</t>
-  </si>
-  <si>
-    <t>System verifies the user and admin can edit data</t>
-  </si>
-  <si>
-    <t>System verifies the user and admin can delete data</t>
-  </si>
-  <si>
-    <t>System verifies the user and admin can  view data</t>
-  </si>
-  <si>
-    <t>System verifies the user and admin can  add data</t>
-  </si>
-  <si>
-    <t>System verifies the user and admin can view data</t>
+    <t>Admin Login</t>
   </si>
   <si>
     <t>username="abc" //invalidata
@@ -925,64 +927,64 @@
     <t>System verifies password with encyption and descryption</t>
   </si>
   <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>User enters the  password to login.</t>
+  </si>
+  <si>
     <t>User username and password</t>
   </si>
   <si>
-    <t>User enters the  password to login.</t>
-  </si>
-  <si>
-    <t>User Login</t>
+    <t>Admin enters into the system</t>
   </si>
   <si>
     <t xml:space="preserve">display the corresponding menu </t>
   </si>
   <si>
+    <t>Admin add data</t>
+  </si>
+  <si>
+    <t>Admin able to add data</t>
+  </si>
+  <si>
+    <t>System verifies the Admin and Admin can add data</t>
+  </si>
+  <si>
+    <t>Admin able to edit data</t>
+  </si>
+  <si>
+    <t>System verifies the Admin and Admin can edit data</t>
+  </si>
+  <si>
+    <t>Admin able to delete data</t>
+  </si>
+  <si>
+    <t>System verifies the Admin and Admin can delete data</t>
+  </si>
+  <si>
+    <t>Admin able to view data</t>
+  </si>
+  <si>
+    <t>System verifies the Admin and Admin can view data</t>
+  </si>
+  <si>
+    <t>User enters into the system</t>
+  </si>
+  <si>
+    <t>System verifies the user and user able to delete data</t>
+  </si>
+  <si>
     <t>User Can view the data</t>
   </si>
   <si>
-    <t>System verifies the user and user able to delete data</t>
+    <t>User Can view data</t>
   </si>
   <si>
     <t>System verifies the user and user can view data</t>
   </si>
   <si>
-    <t>User Can view data</t>
-  </si>
-  <si>
-    <t>User enters into the system</t>
-  </si>
-  <si>
-    <t>Admin enters into the system</t>
-  </si>
-  <si>
-    <t>Admin add data</t>
-  </si>
-  <si>
-    <t>Admin Login</t>
-  </si>
-  <si>
-    <t>Admin able to add data</t>
-  </si>
-  <si>
-    <t>Admin able to edit data</t>
-  </si>
-  <si>
-    <t>Admin able to delete data</t>
-  </si>
-  <si>
-    <t>Admin able to view data</t>
-  </si>
-  <si>
-    <t>System verifies the Admin and Admin can add data</t>
-  </si>
-  <si>
-    <t>System verifies the Admin and Admin can edit data</t>
-  </si>
-  <si>
-    <t>System verifies the Admin and Admin can delete data</t>
-  </si>
-  <si>
-    <t>System verifies the Admin and Admin can view data</t>
+    <t>System verifies the Customer and customer can add data</t>
   </si>
 </sst>
 </file>
@@ -992,7 +994,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1473,7 +1475,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1563,8 +1565,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1623,38 +1646,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1670,9 +1661,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2479,525 +2478,525 @@
       <selection activeCell="K16" sqref="K16:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="13"/>
-    <col min="4" max="4" width="10.7265625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" style="13" customWidth="1"/>
-    <col min="11" max="259" width="8.7265625" style="13"/>
-    <col min="260" max="260" width="10.7265625" style="13" customWidth="1"/>
-    <col min="261" max="261" width="11.7265625" style="13" customWidth="1"/>
-    <col min="262" max="262" width="13.453125" style="13" customWidth="1"/>
-    <col min="263" max="263" width="18.26953125" style="13" customWidth="1"/>
-    <col min="264" max="264" width="10.7265625" style="13" customWidth="1"/>
-    <col min="265" max="265" width="12.7265625" style="13" customWidth="1"/>
-    <col min="266" max="266" width="22.453125" style="13" customWidth="1"/>
-    <col min="267" max="515" width="8.7265625" style="13"/>
-    <col min="516" max="516" width="10.7265625" style="13" customWidth="1"/>
-    <col min="517" max="517" width="11.7265625" style="13" customWidth="1"/>
-    <col min="518" max="518" width="13.453125" style="13" customWidth="1"/>
-    <col min="519" max="519" width="18.26953125" style="13" customWidth="1"/>
-    <col min="520" max="520" width="10.7265625" style="13" customWidth="1"/>
-    <col min="521" max="521" width="12.7265625" style="13" customWidth="1"/>
-    <col min="522" max="522" width="22.453125" style="13" customWidth="1"/>
-    <col min="523" max="771" width="8.7265625" style="13"/>
-    <col min="772" max="772" width="10.7265625" style="13" customWidth="1"/>
-    <col min="773" max="773" width="11.7265625" style="13" customWidth="1"/>
-    <col min="774" max="774" width="13.453125" style="13" customWidth="1"/>
-    <col min="775" max="775" width="18.26953125" style="13" customWidth="1"/>
-    <col min="776" max="776" width="10.7265625" style="13" customWidth="1"/>
-    <col min="777" max="777" width="12.7265625" style="13" customWidth="1"/>
-    <col min="778" max="778" width="22.453125" style="13" customWidth="1"/>
-    <col min="779" max="1027" width="8.7265625" style="13"/>
-    <col min="1028" max="1028" width="10.7265625" style="13" customWidth="1"/>
-    <col min="1029" max="1029" width="11.7265625" style="13" customWidth="1"/>
-    <col min="1030" max="1030" width="13.453125" style="13" customWidth="1"/>
-    <col min="1031" max="1031" width="18.26953125" style="13" customWidth="1"/>
-    <col min="1032" max="1032" width="10.7265625" style="13" customWidth="1"/>
-    <col min="1033" max="1033" width="12.7265625" style="13" customWidth="1"/>
-    <col min="1034" max="1034" width="22.453125" style="13" customWidth="1"/>
-    <col min="1035" max="1283" width="8.7265625" style="13"/>
-    <col min="1284" max="1284" width="10.7265625" style="13" customWidth="1"/>
-    <col min="1285" max="1285" width="11.7265625" style="13" customWidth="1"/>
-    <col min="1286" max="1286" width="13.453125" style="13" customWidth="1"/>
-    <col min="1287" max="1287" width="18.26953125" style="13" customWidth="1"/>
-    <col min="1288" max="1288" width="10.7265625" style="13" customWidth="1"/>
-    <col min="1289" max="1289" width="12.7265625" style="13" customWidth="1"/>
-    <col min="1290" max="1290" width="22.453125" style="13" customWidth="1"/>
-    <col min="1291" max="1539" width="8.7265625" style="13"/>
-    <col min="1540" max="1540" width="10.7265625" style="13" customWidth="1"/>
-    <col min="1541" max="1541" width="11.7265625" style="13" customWidth="1"/>
-    <col min="1542" max="1542" width="13.453125" style="13" customWidth="1"/>
-    <col min="1543" max="1543" width="18.26953125" style="13" customWidth="1"/>
-    <col min="1544" max="1544" width="10.7265625" style="13" customWidth="1"/>
-    <col min="1545" max="1545" width="12.7265625" style="13" customWidth="1"/>
-    <col min="1546" max="1546" width="22.453125" style="13" customWidth="1"/>
-    <col min="1547" max="1795" width="8.7265625" style="13"/>
-    <col min="1796" max="1796" width="10.7265625" style="13" customWidth="1"/>
-    <col min="1797" max="1797" width="11.7265625" style="13" customWidth="1"/>
-    <col min="1798" max="1798" width="13.453125" style="13" customWidth="1"/>
-    <col min="1799" max="1799" width="18.26953125" style="13" customWidth="1"/>
-    <col min="1800" max="1800" width="10.7265625" style="13" customWidth="1"/>
-    <col min="1801" max="1801" width="12.7265625" style="13" customWidth="1"/>
-    <col min="1802" max="1802" width="22.453125" style="13" customWidth="1"/>
-    <col min="1803" max="2051" width="8.7265625" style="13"/>
-    <col min="2052" max="2052" width="10.7265625" style="13" customWidth="1"/>
-    <col min="2053" max="2053" width="11.7265625" style="13" customWidth="1"/>
-    <col min="2054" max="2054" width="13.453125" style="13" customWidth="1"/>
-    <col min="2055" max="2055" width="18.26953125" style="13" customWidth="1"/>
-    <col min="2056" max="2056" width="10.7265625" style="13" customWidth="1"/>
-    <col min="2057" max="2057" width="12.7265625" style="13" customWidth="1"/>
-    <col min="2058" max="2058" width="22.453125" style="13" customWidth="1"/>
-    <col min="2059" max="2307" width="8.7265625" style="13"/>
-    <col min="2308" max="2308" width="10.7265625" style="13" customWidth="1"/>
-    <col min="2309" max="2309" width="11.7265625" style="13" customWidth="1"/>
-    <col min="2310" max="2310" width="13.453125" style="13" customWidth="1"/>
-    <col min="2311" max="2311" width="18.26953125" style="13" customWidth="1"/>
-    <col min="2312" max="2312" width="10.7265625" style="13" customWidth="1"/>
-    <col min="2313" max="2313" width="12.7265625" style="13" customWidth="1"/>
-    <col min="2314" max="2314" width="22.453125" style="13" customWidth="1"/>
-    <col min="2315" max="2563" width="8.7265625" style="13"/>
-    <col min="2564" max="2564" width="10.7265625" style="13" customWidth="1"/>
-    <col min="2565" max="2565" width="11.7265625" style="13" customWidth="1"/>
-    <col min="2566" max="2566" width="13.453125" style="13" customWidth="1"/>
-    <col min="2567" max="2567" width="18.26953125" style="13" customWidth="1"/>
-    <col min="2568" max="2568" width="10.7265625" style="13" customWidth="1"/>
-    <col min="2569" max="2569" width="12.7265625" style="13" customWidth="1"/>
-    <col min="2570" max="2570" width="22.453125" style="13" customWidth="1"/>
-    <col min="2571" max="2819" width="8.7265625" style="13"/>
-    <col min="2820" max="2820" width="10.7265625" style="13" customWidth="1"/>
-    <col min="2821" max="2821" width="11.7265625" style="13" customWidth="1"/>
-    <col min="2822" max="2822" width="13.453125" style="13" customWidth="1"/>
-    <col min="2823" max="2823" width="18.26953125" style="13" customWidth="1"/>
-    <col min="2824" max="2824" width="10.7265625" style="13" customWidth="1"/>
-    <col min="2825" max="2825" width="12.7265625" style="13" customWidth="1"/>
-    <col min="2826" max="2826" width="22.453125" style="13" customWidth="1"/>
-    <col min="2827" max="3075" width="8.7265625" style="13"/>
-    <col min="3076" max="3076" width="10.7265625" style="13" customWidth="1"/>
-    <col min="3077" max="3077" width="11.7265625" style="13" customWidth="1"/>
-    <col min="3078" max="3078" width="13.453125" style="13" customWidth="1"/>
-    <col min="3079" max="3079" width="18.26953125" style="13" customWidth="1"/>
-    <col min="3080" max="3080" width="10.7265625" style="13" customWidth="1"/>
-    <col min="3081" max="3081" width="12.7265625" style="13" customWidth="1"/>
-    <col min="3082" max="3082" width="22.453125" style="13" customWidth="1"/>
-    <col min="3083" max="3331" width="8.7265625" style="13"/>
-    <col min="3332" max="3332" width="10.7265625" style="13" customWidth="1"/>
-    <col min="3333" max="3333" width="11.7265625" style="13" customWidth="1"/>
-    <col min="3334" max="3334" width="13.453125" style="13" customWidth="1"/>
-    <col min="3335" max="3335" width="18.26953125" style="13" customWidth="1"/>
-    <col min="3336" max="3336" width="10.7265625" style="13" customWidth="1"/>
-    <col min="3337" max="3337" width="12.7265625" style="13" customWidth="1"/>
-    <col min="3338" max="3338" width="22.453125" style="13" customWidth="1"/>
-    <col min="3339" max="3587" width="8.7265625" style="13"/>
-    <col min="3588" max="3588" width="10.7265625" style="13" customWidth="1"/>
-    <col min="3589" max="3589" width="11.7265625" style="13" customWidth="1"/>
-    <col min="3590" max="3590" width="13.453125" style="13" customWidth="1"/>
-    <col min="3591" max="3591" width="18.26953125" style="13" customWidth="1"/>
-    <col min="3592" max="3592" width="10.7265625" style="13" customWidth="1"/>
-    <col min="3593" max="3593" width="12.7265625" style="13" customWidth="1"/>
-    <col min="3594" max="3594" width="22.453125" style="13" customWidth="1"/>
-    <col min="3595" max="3843" width="8.7265625" style="13"/>
-    <col min="3844" max="3844" width="10.7265625" style="13" customWidth="1"/>
-    <col min="3845" max="3845" width="11.7265625" style="13" customWidth="1"/>
-    <col min="3846" max="3846" width="13.453125" style="13" customWidth="1"/>
-    <col min="3847" max="3847" width="18.26953125" style="13" customWidth="1"/>
-    <col min="3848" max="3848" width="10.7265625" style="13" customWidth="1"/>
-    <col min="3849" max="3849" width="12.7265625" style="13" customWidth="1"/>
-    <col min="3850" max="3850" width="22.453125" style="13" customWidth="1"/>
-    <col min="3851" max="4099" width="8.7265625" style="13"/>
-    <col min="4100" max="4100" width="10.7265625" style="13" customWidth="1"/>
-    <col min="4101" max="4101" width="11.7265625" style="13" customWidth="1"/>
-    <col min="4102" max="4102" width="13.453125" style="13" customWidth="1"/>
-    <col min="4103" max="4103" width="18.26953125" style="13" customWidth="1"/>
-    <col min="4104" max="4104" width="10.7265625" style="13" customWidth="1"/>
-    <col min="4105" max="4105" width="12.7265625" style="13" customWidth="1"/>
-    <col min="4106" max="4106" width="22.453125" style="13" customWidth="1"/>
-    <col min="4107" max="4355" width="8.7265625" style="13"/>
-    <col min="4356" max="4356" width="10.7265625" style="13" customWidth="1"/>
-    <col min="4357" max="4357" width="11.7265625" style="13" customWidth="1"/>
-    <col min="4358" max="4358" width="13.453125" style="13" customWidth="1"/>
-    <col min="4359" max="4359" width="18.26953125" style="13" customWidth="1"/>
-    <col min="4360" max="4360" width="10.7265625" style="13" customWidth="1"/>
-    <col min="4361" max="4361" width="12.7265625" style="13" customWidth="1"/>
-    <col min="4362" max="4362" width="22.453125" style="13" customWidth="1"/>
-    <col min="4363" max="4611" width="8.7265625" style="13"/>
-    <col min="4612" max="4612" width="10.7265625" style="13" customWidth="1"/>
-    <col min="4613" max="4613" width="11.7265625" style="13" customWidth="1"/>
-    <col min="4614" max="4614" width="13.453125" style="13" customWidth="1"/>
-    <col min="4615" max="4615" width="18.26953125" style="13" customWidth="1"/>
-    <col min="4616" max="4616" width="10.7265625" style="13" customWidth="1"/>
-    <col min="4617" max="4617" width="12.7265625" style="13" customWidth="1"/>
-    <col min="4618" max="4618" width="22.453125" style="13" customWidth="1"/>
-    <col min="4619" max="4867" width="8.7265625" style="13"/>
-    <col min="4868" max="4868" width="10.7265625" style="13" customWidth="1"/>
-    <col min="4869" max="4869" width="11.7265625" style="13" customWidth="1"/>
-    <col min="4870" max="4870" width="13.453125" style="13" customWidth="1"/>
-    <col min="4871" max="4871" width="18.26953125" style="13" customWidth="1"/>
-    <col min="4872" max="4872" width="10.7265625" style="13" customWidth="1"/>
-    <col min="4873" max="4873" width="12.7265625" style="13" customWidth="1"/>
-    <col min="4874" max="4874" width="22.453125" style="13" customWidth="1"/>
-    <col min="4875" max="5123" width="8.7265625" style="13"/>
-    <col min="5124" max="5124" width="10.7265625" style="13" customWidth="1"/>
-    <col min="5125" max="5125" width="11.7265625" style="13" customWidth="1"/>
-    <col min="5126" max="5126" width="13.453125" style="13" customWidth="1"/>
-    <col min="5127" max="5127" width="18.26953125" style="13" customWidth="1"/>
-    <col min="5128" max="5128" width="10.7265625" style="13" customWidth="1"/>
-    <col min="5129" max="5129" width="12.7265625" style="13" customWidth="1"/>
-    <col min="5130" max="5130" width="22.453125" style="13" customWidth="1"/>
-    <col min="5131" max="5379" width="8.7265625" style="13"/>
-    <col min="5380" max="5380" width="10.7265625" style="13" customWidth="1"/>
-    <col min="5381" max="5381" width="11.7265625" style="13" customWidth="1"/>
-    <col min="5382" max="5382" width="13.453125" style="13" customWidth="1"/>
-    <col min="5383" max="5383" width="18.26953125" style="13" customWidth="1"/>
-    <col min="5384" max="5384" width="10.7265625" style="13" customWidth="1"/>
-    <col min="5385" max="5385" width="12.7265625" style="13" customWidth="1"/>
-    <col min="5386" max="5386" width="22.453125" style="13" customWidth="1"/>
-    <col min="5387" max="5635" width="8.7265625" style="13"/>
-    <col min="5636" max="5636" width="10.7265625" style="13" customWidth="1"/>
-    <col min="5637" max="5637" width="11.7265625" style="13" customWidth="1"/>
-    <col min="5638" max="5638" width="13.453125" style="13" customWidth="1"/>
-    <col min="5639" max="5639" width="18.26953125" style="13" customWidth="1"/>
-    <col min="5640" max="5640" width="10.7265625" style="13" customWidth="1"/>
-    <col min="5641" max="5641" width="12.7265625" style="13" customWidth="1"/>
-    <col min="5642" max="5642" width="22.453125" style="13" customWidth="1"/>
-    <col min="5643" max="5891" width="8.7265625" style="13"/>
-    <col min="5892" max="5892" width="10.7265625" style="13" customWidth="1"/>
-    <col min="5893" max="5893" width="11.7265625" style="13" customWidth="1"/>
-    <col min="5894" max="5894" width="13.453125" style="13" customWidth="1"/>
-    <col min="5895" max="5895" width="18.26953125" style="13" customWidth="1"/>
-    <col min="5896" max="5896" width="10.7265625" style="13" customWidth="1"/>
-    <col min="5897" max="5897" width="12.7265625" style="13" customWidth="1"/>
-    <col min="5898" max="5898" width="22.453125" style="13" customWidth="1"/>
-    <col min="5899" max="6147" width="8.7265625" style="13"/>
-    <col min="6148" max="6148" width="10.7265625" style="13" customWidth="1"/>
-    <col min="6149" max="6149" width="11.7265625" style="13" customWidth="1"/>
-    <col min="6150" max="6150" width="13.453125" style="13" customWidth="1"/>
-    <col min="6151" max="6151" width="18.26953125" style="13" customWidth="1"/>
-    <col min="6152" max="6152" width="10.7265625" style="13" customWidth="1"/>
-    <col min="6153" max="6153" width="12.7265625" style="13" customWidth="1"/>
-    <col min="6154" max="6154" width="22.453125" style="13" customWidth="1"/>
-    <col min="6155" max="6403" width="8.7265625" style="13"/>
-    <col min="6404" max="6404" width="10.7265625" style="13" customWidth="1"/>
-    <col min="6405" max="6405" width="11.7265625" style="13" customWidth="1"/>
-    <col min="6406" max="6406" width="13.453125" style="13" customWidth="1"/>
-    <col min="6407" max="6407" width="18.26953125" style="13" customWidth="1"/>
-    <col min="6408" max="6408" width="10.7265625" style="13" customWidth="1"/>
-    <col min="6409" max="6409" width="12.7265625" style="13" customWidth="1"/>
-    <col min="6410" max="6410" width="22.453125" style="13" customWidth="1"/>
-    <col min="6411" max="6659" width="8.7265625" style="13"/>
-    <col min="6660" max="6660" width="10.7265625" style="13" customWidth="1"/>
-    <col min="6661" max="6661" width="11.7265625" style="13" customWidth="1"/>
-    <col min="6662" max="6662" width="13.453125" style="13" customWidth="1"/>
-    <col min="6663" max="6663" width="18.26953125" style="13" customWidth="1"/>
-    <col min="6664" max="6664" width="10.7265625" style="13" customWidth="1"/>
-    <col min="6665" max="6665" width="12.7265625" style="13" customWidth="1"/>
-    <col min="6666" max="6666" width="22.453125" style="13" customWidth="1"/>
-    <col min="6667" max="6915" width="8.7265625" style="13"/>
-    <col min="6916" max="6916" width="10.7265625" style="13" customWidth="1"/>
-    <col min="6917" max="6917" width="11.7265625" style="13" customWidth="1"/>
-    <col min="6918" max="6918" width="13.453125" style="13" customWidth="1"/>
-    <col min="6919" max="6919" width="18.26953125" style="13" customWidth="1"/>
-    <col min="6920" max="6920" width="10.7265625" style="13" customWidth="1"/>
-    <col min="6921" max="6921" width="12.7265625" style="13" customWidth="1"/>
-    <col min="6922" max="6922" width="22.453125" style="13" customWidth="1"/>
-    <col min="6923" max="7171" width="8.7265625" style="13"/>
-    <col min="7172" max="7172" width="10.7265625" style="13" customWidth="1"/>
-    <col min="7173" max="7173" width="11.7265625" style="13" customWidth="1"/>
-    <col min="7174" max="7174" width="13.453125" style="13" customWidth="1"/>
-    <col min="7175" max="7175" width="18.26953125" style="13" customWidth="1"/>
-    <col min="7176" max="7176" width="10.7265625" style="13" customWidth="1"/>
-    <col min="7177" max="7177" width="12.7265625" style="13" customWidth="1"/>
-    <col min="7178" max="7178" width="22.453125" style="13" customWidth="1"/>
-    <col min="7179" max="7427" width="8.7265625" style="13"/>
-    <col min="7428" max="7428" width="10.7265625" style="13" customWidth="1"/>
-    <col min="7429" max="7429" width="11.7265625" style="13" customWidth="1"/>
-    <col min="7430" max="7430" width="13.453125" style="13" customWidth="1"/>
-    <col min="7431" max="7431" width="18.26953125" style="13" customWidth="1"/>
-    <col min="7432" max="7432" width="10.7265625" style="13" customWidth="1"/>
-    <col min="7433" max="7433" width="12.7265625" style="13" customWidth="1"/>
-    <col min="7434" max="7434" width="22.453125" style="13" customWidth="1"/>
-    <col min="7435" max="7683" width="8.7265625" style="13"/>
-    <col min="7684" max="7684" width="10.7265625" style="13" customWidth="1"/>
-    <col min="7685" max="7685" width="11.7265625" style="13" customWidth="1"/>
-    <col min="7686" max="7686" width="13.453125" style="13" customWidth="1"/>
-    <col min="7687" max="7687" width="18.26953125" style="13" customWidth="1"/>
-    <col min="7688" max="7688" width="10.7265625" style="13" customWidth="1"/>
-    <col min="7689" max="7689" width="12.7265625" style="13" customWidth="1"/>
-    <col min="7690" max="7690" width="22.453125" style="13" customWidth="1"/>
-    <col min="7691" max="7939" width="8.7265625" style="13"/>
-    <col min="7940" max="7940" width="10.7265625" style="13" customWidth="1"/>
-    <col min="7941" max="7941" width="11.7265625" style="13" customWidth="1"/>
-    <col min="7942" max="7942" width="13.453125" style="13" customWidth="1"/>
-    <col min="7943" max="7943" width="18.26953125" style="13" customWidth="1"/>
-    <col min="7944" max="7944" width="10.7265625" style="13" customWidth="1"/>
-    <col min="7945" max="7945" width="12.7265625" style="13" customWidth="1"/>
-    <col min="7946" max="7946" width="22.453125" style="13" customWidth="1"/>
-    <col min="7947" max="8195" width="8.7265625" style="13"/>
-    <col min="8196" max="8196" width="10.7265625" style="13" customWidth="1"/>
-    <col min="8197" max="8197" width="11.7265625" style="13" customWidth="1"/>
-    <col min="8198" max="8198" width="13.453125" style="13" customWidth="1"/>
-    <col min="8199" max="8199" width="18.26953125" style="13" customWidth="1"/>
-    <col min="8200" max="8200" width="10.7265625" style="13" customWidth="1"/>
-    <col min="8201" max="8201" width="12.7265625" style="13" customWidth="1"/>
-    <col min="8202" max="8202" width="22.453125" style="13" customWidth="1"/>
-    <col min="8203" max="8451" width="8.7265625" style="13"/>
-    <col min="8452" max="8452" width="10.7265625" style="13" customWidth="1"/>
-    <col min="8453" max="8453" width="11.7265625" style="13" customWidth="1"/>
-    <col min="8454" max="8454" width="13.453125" style="13" customWidth="1"/>
-    <col min="8455" max="8455" width="18.26953125" style="13" customWidth="1"/>
-    <col min="8456" max="8456" width="10.7265625" style="13" customWidth="1"/>
-    <col min="8457" max="8457" width="12.7265625" style="13" customWidth="1"/>
-    <col min="8458" max="8458" width="22.453125" style="13" customWidth="1"/>
-    <col min="8459" max="8707" width="8.7265625" style="13"/>
-    <col min="8708" max="8708" width="10.7265625" style="13" customWidth="1"/>
-    <col min="8709" max="8709" width="11.7265625" style="13" customWidth="1"/>
-    <col min="8710" max="8710" width="13.453125" style="13" customWidth="1"/>
-    <col min="8711" max="8711" width="18.26953125" style="13" customWidth="1"/>
-    <col min="8712" max="8712" width="10.7265625" style="13" customWidth="1"/>
-    <col min="8713" max="8713" width="12.7265625" style="13" customWidth="1"/>
-    <col min="8714" max="8714" width="22.453125" style="13" customWidth="1"/>
-    <col min="8715" max="8963" width="8.7265625" style="13"/>
-    <col min="8964" max="8964" width="10.7265625" style="13" customWidth="1"/>
-    <col min="8965" max="8965" width="11.7265625" style="13" customWidth="1"/>
-    <col min="8966" max="8966" width="13.453125" style="13" customWidth="1"/>
-    <col min="8967" max="8967" width="18.26953125" style="13" customWidth="1"/>
-    <col min="8968" max="8968" width="10.7265625" style="13" customWidth="1"/>
-    <col min="8969" max="8969" width="12.7265625" style="13" customWidth="1"/>
-    <col min="8970" max="8970" width="22.453125" style="13" customWidth="1"/>
-    <col min="8971" max="9219" width="8.7265625" style="13"/>
-    <col min="9220" max="9220" width="10.7265625" style="13" customWidth="1"/>
-    <col min="9221" max="9221" width="11.7265625" style="13" customWidth="1"/>
-    <col min="9222" max="9222" width="13.453125" style="13" customWidth="1"/>
-    <col min="9223" max="9223" width="18.26953125" style="13" customWidth="1"/>
-    <col min="9224" max="9224" width="10.7265625" style="13" customWidth="1"/>
-    <col min="9225" max="9225" width="12.7265625" style="13" customWidth="1"/>
-    <col min="9226" max="9226" width="22.453125" style="13" customWidth="1"/>
-    <col min="9227" max="9475" width="8.7265625" style="13"/>
-    <col min="9476" max="9476" width="10.7265625" style="13" customWidth="1"/>
-    <col min="9477" max="9477" width="11.7265625" style="13" customWidth="1"/>
-    <col min="9478" max="9478" width="13.453125" style="13" customWidth="1"/>
-    <col min="9479" max="9479" width="18.26953125" style="13" customWidth="1"/>
-    <col min="9480" max="9480" width="10.7265625" style="13" customWidth="1"/>
-    <col min="9481" max="9481" width="12.7265625" style="13" customWidth="1"/>
-    <col min="9482" max="9482" width="22.453125" style="13" customWidth="1"/>
-    <col min="9483" max="9731" width="8.7265625" style="13"/>
-    <col min="9732" max="9732" width="10.7265625" style="13" customWidth="1"/>
-    <col min="9733" max="9733" width="11.7265625" style="13" customWidth="1"/>
-    <col min="9734" max="9734" width="13.453125" style="13" customWidth="1"/>
-    <col min="9735" max="9735" width="18.26953125" style="13" customWidth="1"/>
-    <col min="9736" max="9736" width="10.7265625" style="13" customWidth="1"/>
-    <col min="9737" max="9737" width="12.7265625" style="13" customWidth="1"/>
-    <col min="9738" max="9738" width="22.453125" style="13" customWidth="1"/>
-    <col min="9739" max="9987" width="8.7265625" style="13"/>
-    <col min="9988" max="9988" width="10.7265625" style="13" customWidth="1"/>
-    <col min="9989" max="9989" width="11.7265625" style="13" customWidth="1"/>
-    <col min="9990" max="9990" width="13.453125" style="13" customWidth="1"/>
-    <col min="9991" max="9991" width="18.26953125" style="13" customWidth="1"/>
-    <col min="9992" max="9992" width="10.7265625" style="13" customWidth="1"/>
-    <col min="9993" max="9993" width="12.7265625" style="13" customWidth="1"/>
-    <col min="9994" max="9994" width="22.453125" style="13" customWidth="1"/>
-    <col min="9995" max="10243" width="8.7265625" style="13"/>
-    <col min="10244" max="10244" width="10.7265625" style="13" customWidth="1"/>
-    <col min="10245" max="10245" width="11.7265625" style="13" customWidth="1"/>
-    <col min="10246" max="10246" width="13.453125" style="13" customWidth="1"/>
-    <col min="10247" max="10247" width="18.26953125" style="13" customWidth="1"/>
-    <col min="10248" max="10248" width="10.7265625" style="13" customWidth="1"/>
-    <col min="10249" max="10249" width="12.7265625" style="13" customWidth="1"/>
-    <col min="10250" max="10250" width="22.453125" style="13" customWidth="1"/>
-    <col min="10251" max="10499" width="8.7265625" style="13"/>
-    <col min="10500" max="10500" width="10.7265625" style="13" customWidth="1"/>
-    <col min="10501" max="10501" width="11.7265625" style="13" customWidth="1"/>
-    <col min="10502" max="10502" width="13.453125" style="13" customWidth="1"/>
-    <col min="10503" max="10503" width="18.26953125" style="13" customWidth="1"/>
-    <col min="10504" max="10504" width="10.7265625" style="13" customWidth="1"/>
-    <col min="10505" max="10505" width="12.7265625" style="13" customWidth="1"/>
-    <col min="10506" max="10506" width="22.453125" style="13" customWidth="1"/>
-    <col min="10507" max="10755" width="8.7265625" style="13"/>
-    <col min="10756" max="10756" width="10.7265625" style="13" customWidth="1"/>
-    <col min="10757" max="10757" width="11.7265625" style="13" customWidth="1"/>
-    <col min="10758" max="10758" width="13.453125" style="13" customWidth="1"/>
-    <col min="10759" max="10759" width="18.26953125" style="13" customWidth="1"/>
-    <col min="10760" max="10760" width="10.7265625" style="13" customWidth="1"/>
-    <col min="10761" max="10761" width="12.7265625" style="13" customWidth="1"/>
-    <col min="10762" max="10762" width="22.453125" style="13" customWidth="1"/>
-    <col min="10763" max="11011" width="8.7265625" style="13"/>
-    <col min="11012" max="11012" width="10.7265625" style="13" customWidth="1"/>
-    <col min="11013" max="11013" width="11.7265625" style="13" customWidth="1"/>
-    <col min="11014" max="11014" width="13.453125" style="13" customWidth="1"/>
-    <col min="11015" max="11015" width="18.26953125" style="13" customWidth="1"/>
-    <col min="11016" max="11016" width="10.7265625" style="13" customWidth="1"/>
-    <col min="11017" max="11017" width="12.7265625" style="13" customWidth="1"/>
-    <col min="11018" max="11018" width="22.453125" style="13" customWidth="1"/>
-    <col min="11019" max="11267" width="8.7265625" style="13"/>
-    <col min="11268" max="11268" width="10.7265625" style="13" customWidth="1"/>
-    <col min="11269" max="11269" width="11.7265625" style="13" customWidth="1"/>
-    <col min="11270" max="11270" width="13.453125" style="13" customWidth="1"/>
-    <col min="11271" max="11271" width="18.26953125" style="13" customWidth="1"/>
-    <col min="11272" max="11272" width="10.7265625" style="13" customWidth="1"/>
-    <col min="11273" max="11273" width="12.7265625" style="13" customWidth="1"/>
-    <col min="11274" max="11274" width="22.453125" style="13" customWidth="1"/>
-    <col min="11275" max="11523" width="8.7265625" style="13"/>
-    <col min="11524" max="11524" width="10.7265625" style="13" customWidth="1"/>
-    <col min="11525" max="11525" width="11.7265625" style="13" customWidth="1"/>
-    <col min="11526" max="11526" width="13.453125" style="13" customWidth="1"/>
-    <col min="11527" max="11527" width="18.26953125" style="13" customWidth="1"/>
-    <col min="11528" max="11528" width="10.7265625" style="13" customWidth="1"/>
-    <col min="11529" max="11529" width="12.7265625" style="13" customWidth="1"/>
-    <col min="11530" max="11530" width="22.453125" style="13" customWidth="1"/>
-    <col min="11531" max="11779" width="8.7265625" style="13"/>
-    <col min="11780" max="11780" width="10.7265625" style="13" customWidth="1"/>
-    <col min="11781" max="11781" width="11.7265625" style="13" customWidth="1"/>
-    <col min="11782" max="11782" width="13.453125" style="13" customWidth="1"/>
-    <col min="11783" max="11783" width="18.26953125" style="13" customWidth="1"/>
-    <col min="11784" max="11784" width="10.7265625" style="13" customWidth="1"/>
-    <col min="11785" max="11785" width="12.7265625" style="13" customWidth="1"/>
-    <col min="11786" max="11786" width="22.453125" style="13" customWidth="1"/>
-    <col min="11787" max="12035" width="8.7265625" style="13"/>
-    <col min="12036" max="12036" width="10.7265625" style="13" customWidth="1"/>
-    <col min="12037" max="12037" width="11.7265625" style="13" customWidth="1"/>
-    <col min="12038" max="12038" width="13.453125" style="13" customWidth="1"/>
-    <col min="12039" max="12039" width="18.26953125" style="13" customWidth="1"/>
-    <col min="12040" max="12040" width="10.7265625" style="13" customWidth="1"/>
-    <col min="12041" max="12041" width="12.7265625" style="13" customWidth="1"/>
-    <col min="12042" max="12042" width="22.453125" style="13" customWidth="1"/>
-    <col min="12043" max="12291" width="8.7265625" style="13"/>
-    <col min="12292" max="12292" width="10.7265625" style="13" customWidth="1"/>
-    <col min="12293" max="12293" width="11.7265625" style="13" customWidth="1"/>
-    <col min="12294" max="12294" width="13.453125" style="13" customWidth="1"/>
-    <col min="12295" max="12295" width="18.26953125" style="13" customWidth="1"/>
-    <col min="12296" max="12296" width="10.7265625" style="13" customWidth="1"/>
-    <col min="12297" max="12297" width="12.7265625" style="13" customWidth="1"/>
-    <col min="12298" max="12298" width="22.453125" style="13" customWidth="1"/>
-    <col min="12299" max="12547" width="8.7265625" style="13"/>
-    <col min="12548" max="12548" width="10.7265625" style="13" customWidth="1"/>
-    <col min="12549" max="12549" width="11.7265625" style="13" customWidth="1"/>
-    <col min="12550" max="12550" width="13.453125" style="13" customWidth="1"/>
-    <col min="12551" max="12551" width="18.26953125" style="13" customWidth="1"/>
-    <col min="12552" max="12552" width="10.7265625" style="13" customWidth="1"/>
-    <col min="12553" max="12553" width="12.7265625" style="13" customWidth="1"/>
-    <col min="12554" max="12554" width="22.453125" style="13" customWidth="1"/>
-    <col min="12555" max="12803" width="8.7265625" style="13"/>
-    <col min="12804" max="12804" width="10.7265625" style="13" customWidth="1"/>
-    <col min="12805" max="12805" width="11.7265625" style="13" customWidth="1"/>
-    <col min="12806" max="12806" width="13.453125" style="13" customWidth="1"/>
-    <col min="12807" max="12807" width="18.26953125" style="13" customWidth="1"/>
-    <col min="12808" max="12808" width="10.7265625" style="13" customWidth="1"/>
-    <col min="12809" max="12809" width="12.7265625" style="13" customWidth="1"/>
-    <col min="12810" max="12810" width="22.453125" style="13" customWidth="1"/>
-    <col min="12811" max="13059" width="8.7265625" style="13"/>
-    <col min="13060" max="13060" width="10.7265625" style="13" customWidth="1"/>
-    <col min="13061" max="13061" width="11.7265625" style="13" customWidth="1"/>
-    <col min="13062" max="13062" width="13.453125" style="13" customWidth="1"/>
-    <col min="13063" max="13063" width="18.26953125" style="13" customWidth="1"/>
-    <col min="13064" max="13064" width="10.7265625" style="13" customWidth="1"/>
-    <col min="13065" max="13065" width="12.7265625" style="13" customWidth="1"/>
-    <col min="13066" max="13066" width="22.453125" style="13" customWidth="1"/>
-    <col min="13067" max="13315" width="8.7265625" style="13"/>
-    <col min="13316" max="13316" width="10.7265625" style="13" customWidth="1"/>
-    <col min="13317" max="13317" width="11.7265625" style="13" customWidth="1"/>
-    <col min="13318" max="13318" width="13.453125" style="13" customWidth="1"/>
-    <col min="13319" max="13319" width="18.26953125" style="13" customWidth="1"/>
-    <col min="13320" max="13320" width="10.7265625" style="13" customWidth="1"/>
-    <col min="13321" max="13321" width="12.7265625" style="13" customWidth="1"/>
-    <col min="13322" max="13322" width="22.453125" style="13" customWidth="1"/>
-    <col min="13323" max="13571" width="8.7265625" style="13"/>
-    <col min="13572" max="13572" width="10.7265625" style="13" customWidth="1"/>
-    <col min="13573" max="13573" width="11.7265625" style="13" customWidth="1"/>
-    <col min="13574" max="13574" width="13.453125" style="13" customWidth="1"/>
-    <col min="13575" max="13575" width="18.26953125" style="13" customWidth="1"/>
-    <col min="13576" max="13576" width="10.7265625" style="13" customWidth="1"/>
-    <col min="13577" max="13577" width="12.7265625" style="13" customWidth="1"/>
-    <col min="13578" max="13578" width="22.453125" style="13" customWidth="1"/>
-    <col min="13579" max="13827" width="8.7265625" style="13"/>
-    <col min="13828" max="13828" width="10.7265625" style="13" customWidth="1"/>
-    <col min="13829" max="13829" width="11.7265625" style="13" customWidth="1"/>
-    <col min="13830" max="13830" width="13.453125" style="13" customWidth="1"/>
-    <col min="13831" max="13831" width="18.26953125" style="13" customWidth="1"/>
-    <col min="13832" max="13832" width="10.7265625" style="13" customWidth="1"/>
-    <col min="13833" max="13833" width="12.7265625" style="13" customWidth="1"/>
-    <col min="13834" max="13834" width="22.453125" style="13" customWidth="1"/>
-    <col min="13835" max="14083" width="8.7265625" style="13"/>
-    <col min="14084" max="14084" width="10.7265625" style="13" customWidth="1"/>
-    <col min="14085" max="14085" width="11.7265625" style="13" customWidth="1"/>
-    <col min="14086" max="14086" width="13.453125" style="13" customWidth="1"/>
-    <col min="14087" max="14087" width="18.26953125" style="13" customWidth="1"/>
-    <col min="14088" max="14088" width="10.7265625" style="13" customWidth="1"/>
-    <col min="14089" max="14089" width="12.7265625" style="13" customWidth="1"/>
-    <col min="14090" max="14090" width="22.453125" style="13" customWidth="1"/>
-    <col min="14091" max="14339" width="8.7265625" style="13"/>
-    <col min="14340" max="14340" width="10.7265625" style="13" customWidth="1"/>
-    <col min="14341" max="14341" width="11.7265625" style="13" customWidth="1"/>
-    <col min="14342" max="14342" width="13.453125" style="13" customWidth="1"/>
-    <col min="14343" max="14343" width="18.26953125" style="13" customWidth="1"/>
-    <col min="14344" max="14344" width="10.7265625" style="13" customWidth="1"/>
-    <col min="14345" max="14345" width="12.7265625" style="13" customWidth="1"/>
-    <col min="14346" max="14346" width="22.453125" style="13" customWidth="1"/>
-    <col min="14347" max="14595" width="8.7265625" style="13"/>
-    <col min="14596" max="14596" width="10.7265625" style="13" customWidth="1"/>
-    <col min="14597" max="14597" width="11.7265625" style="13" customWidth="1"/>
-    <col min="14598" max="14598" width="13.453125" style="13" customWidth="1"/>
-    <col min="14599" max="14599" width="18.26953125" style="13" customWidth="1"/>
-    <col min="14600" max="14600" width="10.7265625" style="13" customWidth="1"/>
-    <col min="14601" max="14601" width="12.7265625" style="13" customWidth="1"/>
-    <col min="14602" max="14602" width="22.453125" style="13" customWidth="1"/>
-    <col min="14603" max="14851" width="8.7265625" style="13"/>
-    <col min="14852" max="14852" width="10.7265625" style="13" customWidth="1"/>
-    <col min="14853" max="14853" width="11.7265625" style="13" customWidth="1"/>
-    <col min="14854" max="14854" width="13.453125" style="13" customWidth="1"/>
-    <col min="14855" max="14855" width="18.26953125" style="13" customWidth="1"/>
-    <col min="14856" max="14856" width="10.7265625" style="13" customWidth="1"/>
-    <col min="14857" max="14857" width="12.7265625" style="13" customWidth="1"/>
-    <col min="14858" max="14858" width="22.453125" style="13" customWidth="1"/>
-    <col min="14859" max="15107" width="8.7265625" style="13"/>
-    <col min="15108" max="15108" width="10.7265625" style="13" customWidth="1"/>
-    <col min="15109" max="15109" width="11.7265625" style="13" customWidth="1"/>
-    <col min="15110" max="15110" width="13.453125" style="13" customWidth="1"/>
-    <col min="15111" max="15111" width="18.26953125" style="13" customWidth="1"/>
-    <col min="15112" max="15112" width="10.7265625" style="13" customWidth="1"/>
-    <col min="15113" max="15113" width="12.7265625" style="13" customWidth="1"/>
-    <col min="15114" max="15114" width="22.453125" style="13" customWidth="1"/>
-    <col min="15115" max="15363" width="8.7265625" style="13"/>
-    <col min="15364" max="15364" width="10.7265625" style="13" customWidth="1"/>
-    <col min="15365" max="15365" width="11.7265625" style="13" customWidth="1"/>
-    <col min="15366" max="15366" width="13.453125" style="13" customWidth="1"/>
-    <col min="15367" max="15367" width="18.26953125" style="13" customWidth="1"/>
-    <col min="15368" max="15368" width="10.7265625" style="13" customWidth="1"/>
-    <col min="15369" max="15369" width="12.7265625" style="13" customWidth="1"/>
-    <col min="15370" max="15370" width="22.453125" style="13" customWidth="1"/>
-    <col min="15371" max="15619" width="8.7265625" style="13"/>
-    <col min="15620" max="15620" width="10.7265625" style="13" customWidth="1"/>
-    <col min="15621" max="15621" width="11.7265625" style="13" customWidth="1"/>
-    <col min="15622" max="15622" width="13.453125" style="13" customWidth="1"/>
-    <col min="15623" max="15623" width="18.26953125" style="13" customWidth="1"/>
-    <col min="15624" max="15624" width="10.7265625" style="13" customWidth="1"/>
-    <col min="15625" max="15625" width="12.7265625" style="13" customWidth="1"/>
-    <col min="15626" max="15626" width="22.453125" style="13" customWidth="1"/>
-    <col min="15627" max="15875" width="8.7265625" style="13"/>
-    <col min="15876" max="15876" width="10.7265625" style="13" customWidth="1"/>
-    <col min="15877" max="15877" width="11.7265625" style="13" customWidth="1"/>
-    <col min="15878" max="15878" width="13.453125" style="13" customWidth="1"/>
-    <col min="15879" max="15879" width="18.26953125" style="13" customWidth="1"/>
-    <col min="15880" max="15880" width="10.7265625" style="13" customWidth="1"/>
-    <col min="15881" max="15881" width="12.7265625" style="13" customWidth="1"/>
-    <col min="15882" max="15882" width="22.453125" style="13" customWidth="1"/>
-    <col min="15883" max="16131" width="8.7265625" style="13"/>
-    <col min="16132" max="16132" width="10.7265625" style="13" customWidth="1"/>
-    <col min="16133" max="16133" width="11.7265625" style="13" customWidth="1"/>
-    <col min="16134" max="16134" width="13.453125" style="13" customWidth="1"/>
-    <col min="16135" max="16135" width="18.26953125" style="13" customWidth="1"/>
-    <col min="16136" max="16136" width="10.7265625" style="13" customWidth="1"/>
-    <col min="16137" max="16137" width="12.7265625" style="13" customWidth="1"/>
-    <col min="16138" max="16138" width="22.453125" style="13" customWidth="1"/>
-    <col min="16139" max="16384" width="8.7265625" style="13"/>
+    <col min="1" max="3" width="8.7109375" style="13"/>
+    <col min="4" max="4" width="10.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="13" customWidth="1"/>
+    <col min="11" max="259" width="8.7109375" style="13"/>
+    <col min="260" max="260" width="10.7109375" style="13" customWidth="1"/>
+    <col min="261" max="261" width="11.7109375" style="13" customWidth="1"/>
+    <col min="262" max="262" width="13.42578125" style="13" customWidth="1"/>
+    <col min="263" max="263" width="18.28515625" style="13" customWidth="1"/>
+    <col min="264" max="264" width="10.7109375" style="13" customWidth="1"/>
+    <col min="265" max="265" width="12.7109375" style="13" customWidth="1"/>
+    <col min="266" max="266" width="22.42578125" style="13" customWidth="1"/>
+    <col min="267" max="515" width="8.7109375" style="13"/>
+    <col min="516" max="516" width="10.7109375" style="13" customWidth="1"/>
+    <col min="517" max="517" width="11.7109375" style="13" customWidth="1"/>
+    <col min="518" max="518" width="13.42578125" style="13" customWidth="1"/>
+    <col min="519" max="519" width="18.28515625" style="13" customWidth="1"/>
+    <col min="520" max="520" width="10.7109375" style="13" customWidth="1"/>
+    <col min="521" max="521" width="12.7109375" style="13" customWidth="1"/>
+    <col min="522" max="522" width="22.42578125" style="13" customWidth="1"/>
+    <col min="523" max="771" width="8.7109375" style="13"/>
+    <col min="772" max="772" width="10.7109375" style="13" customWidth="1"/>
+    <col min="773" max="773" width="11.7109375" style="13" customWidth="1"/>
+    <col min="774" max="774" width="13.42578125" style="13" customWidth="1"/>
+    <col min="775" max="775" width="18.28515625" style="13" customWidth="1"/>
+    <col min="776" max="776" width="10.7109375" style="13" customWidth="1"/>
+    <col min="777" max="777" width="12.7109375" style="13" customWidth="1"/>
+    <col min="778" max="778" width="22.42578125" style="13" customWidth="1"/>
+    <col min="779" max="1027" width="8.7109375" style="13"/>
+    <col min="1028" max="1028" width="10.7109375" style="13" customWidth="1"/>
+    <col min="1029" max="1029" width="11.7109375" style="13" customWidth="1"/>
+    <col min="1030" max="1030" width="13.42578125" style="13" customWidth="1"/>
+    <col min="1031" max="1031" width="18.28515625" style="13" customWidth="1"/>
+    <col min="1032" max="1032" width="10.7109375" style="13" customWidth="1"/>
+    <col min="1033" max="1033" width="12.7109375" style="13" customWidth="1"/>
+    <col min="1034" max="1034" width="22.42578125" style="13" customWidth="1"/>
+    <col min="1035" max="1283" width="8.7109375" style="13"/>
+    <col min="1284" max="1284" width="10.7109375" style="13" customWidth="1"/>
+    <col min="1285" max="1285" width="11.7109375" style="13" customWidth="1"/>
+    <col min="1286" max="1286" width="13.42578125" style="13" customWidth="1"/>
+    <col min="1287" max="1287" width="18.28515625" style="13" customWidth="1"/>
+    <col min="1288" max="1288" width="10.7109375" style="13" customWidth="1"/>
+    <col min="1289" max="1289" width="12.7109375" style="13" customWidth="1"/>
+    <col min="1290" max="1290" width="22.42578125" style="13" customWidth="1"/>
+    <col min="1291" max="1539" width="8.7109375" style="13"/>
+    <col min="1540" max="1540" width="10.7109375" style="13" customWidth="1"/>
+    <col min="1541" max="1541" width="11.7109375" style="13" customWidth="1"/>
+    <col min="1542" max="1542" width="13.42578125" style="13" customWidth="1"/>
+    <col min="1543" max="1543" width="18.28515625" style="13" customWidth="1"/>
+    <col min="1544" max="1544" width="10.7109375" style="13" customWidth="1"/>
+    <col min="1545" max="1545" width="12.7109375" style="13" customWidth="1"/>
+    <col min="1546" max="1546" width="22.42578125" style="13" customWidth="1"/>
+    <col min="1547" max="1795" width="8.7109375" style="13"/>
+    <col min="1796" max="1796" width="10.7109375" style="13" customWidth="1"/>
+    <col min="1797" max="1797" width="11.7109375" style="13" customWidth="1"/>
+    <col min="1798" max="1798" width="13.42578125" style="13" customWidth="1"/>
+    <col min="1799" max="1799" width="18.28515625" style="13" customWidth="1"/>
+    <col min="1800" max="1800" width="10.7109375" style="13" customWidth="1"/>
+    <col min="1801" max="1801" width="12.7109375" style="13" customWidth="1"/>
+    <col min="1802" max="1802" width="22.42578125" style="13" customWidth="1"/>
+    <col min="1803" max="2051" width="8.7109375" style="13"/>
+    <col min="2052" max="2052" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2053" max="2053" width="11.7109375" style="13" customWidth="1"/>
+    <col min="2054" max="2054" width="13.42578125" style="13" customWidth="1"/>
+    <col min="2055" max="2055" width="18.28515625" style="13" customWidth="1"/>
+    <col min="2056" max="2056" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2057" max="2057" width="12.7109375" style="13" customWidth="1"/>
+    <col min="2058" max="2058" width="22.42578125" style="13" customWidth="1"/>
+    <col min="2059" max="2307" width="8.7109375" style="13"/>
+    <col min="2308" max="2308" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2309" max="2309" width="11.7109375" style="13" customWidth="1"/>
+    <col min="2310" max="2310" width="13.42578125" style="13" customWidth="1"/>
+    <col min="2311" max="2311" width="18.28515625" style="13" customWidth="1"/>
+    <col min="2312" max="2312" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2313" max="2313" width="12.7109375" style="13" customWidth="1"/>
+    <col min="2314" max="2314" width="22.42578125" style="13" customWidth="1"/>
+    <col min="2315" max="2563" width="8.7109375" style="13"/>
+    <col min="2564" max="2564" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2565" max="2565" width="11.7109375" style="13" customWidth="1"/>
+    <col min="2566" max="2566" width="13.42578125" style="13" customWidth="1"/>
+    <col min="2567" max="2567" width="18.28515625" style="13" customWidth="1"/>
+    <col min="2568" max="2568" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2569" max="2569" width="12.7109375" style="13" customWidth="1"/>
+    <col min="2570" max="2570" width="22.42578125" style="13" customWidth="1"/>
+    <col min="2571" max="2819" width="8.7109375" style="13"/>
+    <col min="2820" max="2820" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2821" max="2821" width="11.7109375" style="13" customWidth="1"/>
+    <col min="2822" max="2822" width="13.42578125" style="13" customWidth="1"/>
+    <col min="2823" max="2823" width="18.28515625" style="13" customWidth="1"/>
+    <col min="2824" max="2824" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2825" max="2825" width="12.7109375" style="13" customWidth="1"/>
+    <col min="2826" max="2826" width="22.42578125" style="13" customWidth="1"/>
+    <col min="2827" max="3075" width="8.7109375" style="13"/>
+    <col min="3076" max="3076" width="10.7109375" style="13" customWidth="1"/>
+    <col min="3077" max="3077" width="11.7109375" style="13" customWidth="1"/>
+    <col min="3078" max="3078" width="13.42578125" style="13" customWidth="1"/>
+    <col min="3079" max="3079" width="18.28515625" style="13" customWidth="1"/>
+    <col min="3080" max="3080" width="10.7109375" style="13" customWidth="1"/>
+    <col min="3081" max="3081" width="12.7109375" style="13" customWidth="1"/>
+    <col min="3082" max="3082" width="22.42578125" style="13" customWidth="1"/>
+    <col min="3083" max="3331" width="8.7109375" style="13"/>
+    <col min="3332" max="3332" width="10.7109375" style="13" customWidth="1"/>
+    <col min="3333" max="3333" width="11.7109375" style="13" customWidth="1"/>
+    <col min="3334" max="3334" width="13.42578125" style="13" customWidth="1"/>
+    <col min="3335" max="3335" width="18.28515625" style="13" customWidth="1"/>
+    <col min="3336" max="3336" width="10.7109375" style="13" customWidth="1"/>
+    <col min="3337" max="3337" width="12.7109375" style="13" customWidth="1"/>
+    <col min="3338" max="3338" width="22.42578125" style="13" customWidth="1"/>
+    <col min="3339" max="3587" width="8.7109375" style="13"/>
+    <col min="3588" max="3588" width="10.7109375" style="13" customWidth="1"/>
+    <col min="3589" max="3589" width="11.7109375" style="13" customWidth="1"/>
+    <col min="3590" max="3590" width="13.42578125" style="13" customWidth="1"/>
+    <col min="3591" max="3591" width="18.28515625" style="13" customWidth="1"/>
+    <col min="3592" max="3592" width="10.7109375" style="13" customWidth="1"/>
+    <col min="3593" max="3593" width="12.7109375" style="13" customWidth="1"/>
+    <col min="3594" max="3594" width="22.42578125" style="13" customWidth="1"/>
+    <col min="3595" max="3843" width="8.7109375" style="13"/>
+    <col min="3844" max="3844" width="10.7109375" style="13" customWidth="1"/>
+    <col min="3845" max="3845" width="11.7109375" style="13" customWidth="1"/>
+    <col min="3846" max="3846" width="13.42578125" style="13" customWidth="1"/>
+    <col min="3847" max="3847" width="18.28515625" style="13" customWidth="1"/>
+    <col min="3848" max="3848" width="10.7109375" style="13" customWidth="1"/>
+    <col min="3849" max="3849" width="12.7109375" style="13" customWidth="1"/>
+    <col min="3850" max="3850" width="22.42578125" style="13" customWidth="1"/>
+    <col min="3851" max="4099" width="8.7109375" style="13"/>
+    <col min="4100" max="4100" width="10.7109375" style="13" customWidth="1"/>
+    <col min="4101" max="4101" width="11.7109375" style="13" customWidth="1"/>
+    <col min="4102" max="4102" width="13.42578125" style="13" customWidth="1"/>
+    <col min="4103" max="4103" width="18.28515625" style="13" customWidth="1"/>
+    <col min="4104" max="4104" width="10.7109375" style="13" customWidth="1"/>
+    <col min="4105" max="4105" width="12.7109375" style="13" customWidth="1"/>
+    <col min="4106" max="4106" width="22.42578125" style="13" customWidth="1"/>
+    <col min="4107" max="4355" width="8.7109375" style="13"/>
+    <col min="4356" max="4356" width="10.7109375" style="13" customWidth="1"/>
+    <col min="4357" max="4357" width="11.7109375" style="13" customWidth="1"/>
+    <col min="4358" max="4358" width="13.42578125" style="13" customWidth="1"/>
+    <col min="4359" max="4359" width="18.28515625" style="13" customWidth="1"/>
+    <col min="4360" max="4360" width="10.7109375" style="13" customWidth="1"/>
+    <col min="4361" max="4361" width="12.7109375" style="13" customWidth="1"/>
+    <col min="4362" max="4362" width="22.42578125" style="13" customWidth="1"/>
+    <col min="4363" max="4611" width="8.7109375" style="13"/>
+    <col min="4612" max="4612" width="10.7109375" style="13" customWidth="1"/>
+    <col min="4613" max="4613" width="11.7109375" style="13" customWidth="1"/>
+    <col min="4614" max="4614" width="13.42578125" style="13" customWidth="1"/>
+    <col min="4615" max="4615" width="18.28515625" style="13" customWidth="1"/>
+    <col min="4616" max="4616" width="10.7109375" style="13" customWidth="1"/>
+    <col min="4617" max="4617" width="12.7109375" style="13" customWidth="1"/>
+    <col min="4618" max="4618" width="22.42578125" style="13" customWidth="1"/>
+    <col min="4619" max="4867" width="8.7109375" style="13"/>
+    <col min="4868" max="4868" width="10.7109375" style="13" customWidth="1"/>
+    <col min="4869" max="4869" width="11.7109375" style="13" customWidth="1"/>
+    <col min="4870" max="4870" width="13.42578125" style="13" customWidth="1"/>
+    <col min="4871" max="4871" width="18.28515625" style="13" customWidth="1"/>
+    <col min="4872" max="4872" width="10.7109375" style="13" customWidth="1"/>
+    <col min="4873" max="4873" width="12.7109375" style="13" customWidth="1"/>
+    <col min="4874" max="4874" width="22.42578125" style="13" customWidth="1"/>
+    <col min="4875" max="5123" width="8.7109375" style="13"/>
+    <col min="5124" max="5124" width="10.7109375" style="13" customWidth="1"/>
+    <col min="5125" max="5125" width="11.7109375" style="13" customWidth="1"/>
+    <col min="5126" max="5126" width="13.42578125" style="13" customWidth="1"/>
+    <col min="5127" max="5127" width="18.28515625" style="13" customWidth="1"/>
+    <col min="5128" max="5128" width="10.7109375" style="13" customWidth="1"/>
+    <col min="5129" max="5129" width="12.7109375" style="13" customWidth="1"/>
+    <col min="5130" max="5130" width="22.42578125" style="13" customWidth="1"/>
+    <col min="5131" max="5379" width="8.7109375" style="13"/>
+    <col min="5380" max="5380" width="10.7109375" style="13" customWidth="1"/>
+    <col min="5381" max="5381" width="11.7109375" style="13" customWidth="1"/>
+    <col min="5382" max="5382" width="13.42578125" style="13" customWidth="1"/>
+    <col min="5383" max="5383" width="18.28515625" style="13" customWidth="1"/>
+    <col min="5384" max="5384" width="10.7109375" style="13" customWidth="1"/>
+    <col min="5385" max="5385" width="12.7109375" style="13" customWidth="1"/>
+    <col min="5386" max="5386" width="22.42578125" style="13" customWidth="1"/>
+    <col min="5387" max="5635" width="8.7109375" style="13"/>
+    <col min="5636" max="5636" width="10.7109375" style="13" customWidth="1"/>
+    <col min="5637" max="5637" width="11.7109375" style="13" customWidth="1"/>
+    <col min="5638" max="5638" width="13.42578125" style="13" customWidth="1"/>
+    <col min="5639" max="5639" width="18.28515625" style="13" customWidth="1"/>
+    <col min="5640" max="5640" width="10.7109375" style="13" customWidth="1"/>
+    <col min="5641" max="5641" width="12.7109375" style="13" customWidth="1"/>
+    <col min="5642" max="5642" width="22.42578125" style="13" customWidth="1"/>
+    <col min="5643" max="5891" width="8.7109375" style="13"/>
+    <col min="5892" max="5892" width="10.7109375" style="13" customWidth="1"/>
+    <col min="5893" max="5893" width="11.7109375" style="13" customWidth="1"/>
+    <col min="5894" max="5894" width="13.42578125" style="13" customWidth="1"/>
+    <col min="5895" max="5895" width="18.28515625" style="13" customWidth="1"/>
+    <col min="5896" max="5896" width="10.7109375" style="13" customWidth="1"/>
+    <col min="5897" max="5897" width="12.7109375" style="13" customWidth="1"/>
+    <col min="5898" max="5898" width="22.42578125" style="13" customWidth="1"/>
+    <col min="5899" max="6147" width="8.7109375" style="13"/>
+    <col min="6148" max="6148" width="10.7109375" style="13" customWidth="1"/>
+    <col min="6149" max="6149" width="11.7109375" style="13" customWidth="1"/>
+    <col min="6150" max="6150" width="13.42578125" style="13" customWidth="1"/>
+    <col min="6151" max="6151" width="18.28515625" style="13" customWidth="1"/>
+    <col min="6152" max="6152" width="10.7109375" style="13" customWidth="1"/>
+    <col min="6153" max="6153" width="12.7109375" style="13" customWidth="1"/>
+    <col min="6154" max="6154" width="22.42578125" style="13" customWidth="1"/>
+    <col min="6155" max="6403" width="8.7109375" style="13"/>
+    <col min="6404" max="6404" width="10.7109375" style="13" customWidth="1"/>
+    <col min="6405" max="6405" width="11.7109375" style="13" customWidth="1"/>
+    <col min="6406" max="6406" width="13.42578125" style="13" customWidth="1"/>
+    <col min="6407" max="6407" width="18.28515625" style="13" customWidth="1"/>
+    <col min="6408" max="6408" width="10.7109375" style="13" customWidth="1"/>
+    <col min="6409" max="6409" width="12.7109375" style="13" customWidth="1"/>
+    <col min="6410" max="6410" width="22.42578125" style="13" customWidth="1"/>
+    <col min="6411" max="6659" width="8.7109375" style="13"/>
+    <col min="6660" max="6660" width="10.7109375" style="13" customWidth="1"/>
+    <col min="6661" max="6661" width="11.7109375" style="13" customWidth="1"/>
+    <col min="6662" max="6662" width="13.42578125" style="13" customWidth="1"/>
+    <col min="6663" max="6663" width="18.28515625" style="13" customWidth="1"/>
+    <col min="6664" max="6664" width="10.7109375" style="13" customWidth="1"/>
+    <col min="6665" max="6665" width="12.7109375" style="13" customWidth="1"/>
+    <col min="6666" max="6666" width="22.42578125" style="13" customWidth="1"/>
+    <col min="6667" max="6915" width="8.7109375" style="13"/>
+    <col min="6916" max="6916" width="10.7109375" style="13" customWidth="1"/>
+    <col min="6917" max="6917" width="11.7109375" style="13" customWidth="1"/>
+    <col min="6918" max="6918" width="13.42578125" style="13" customWidth="1"/>
+    <col min="6919" max="6919" width="18.28515625" style="13" customWidth="1"/>
+    <col min="6920" max="6920" width="10.7109375" style="13" customWidth="1"/>
+    <col min="6921" max="6921" width="12.7109375" style="13" customWidth="1"/>
+    <col min="6922" max="6922" width="22.42578125" style="13" customWidth="1"/>
+    <col min="6923" max="7171" width="8.7109375" style="13"/>
+    <col min="7172" max="7172" width="10.7109375" style="13" customWidth="1"/>
+    <col min="7173" max="7173" width="11.7109375" style="13" customWidth="1"/>
+    <col min="7174" max="7174" width="13.42578125" style="13" customWidth="1"/>
+    <col min="7175" max="7175" width="18.28515625" style="13" customWidth="1"/>
+    <col min="7176" max="7176" width="10.7109375" style="13" customWidth="1"/>
+    <col min="7177" max="7177" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7178" max="7178" width="22.42578125" style="13" customWidth="1"/>
+    <col min="7179" max="7427" width="8.7109375" style="13"/>
+    <col min="7428" max="7428" width="10.7109375" style="13" customWidth="1"/>
+    <col min="7429" max="7429" width="11.7109375" style="13" customWidth="1"/>
+    <col min="7430" max="7430" width="13.42578125" style="13" customWidth="1"/>
+    <col min="7431" max="7431" width="18.28515625" style="13" customWidth="1"/>
+    <col min="7432" max="7432" width="10.7109375" style="13" customWidth="1"/>
+    <col min="7433" max="7433" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7434" max="7434" width="22.42578125" style="13" customWidth="1"/>
+    <col min="7435" max="7683" width="8.7109375" style="13"/>
+    <col min="7684" max="7684" width="10.7109375" style="13" customWidth="1"/>
+    <col min="7685" max="7685" width="11.7109375" style="13" customWidth="1"/>
+    <col min="7686" max="7686" width="13.42578125" style="13" customWidth="1"/>
+    <col min="7687" max="7687" width="18.28515625" style="13" customWidth="1"/>
+    <col min="7688" max="7688" width="10.7109375" style="13" customWidth="1"/>
+    <col min="7689" max="7689" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7690" max="7690" width="22.42578125" style="13" customWidth="1"/>
+    <col min="7691" max="7939" width="8.7109375" style="13"/>
+    <col min="7940" max="7940" width="10.7109375" style="13" customWidth="1"/>
+    <col min="7941" max="7941" width="11.7109375" style="13" customWidth="1"/>
+    <col min="7942" max="7942" width="13.42578125" style="13" customWidth="1"/>
+    <col min="7943" max="7943" width="18.28515625" style="13" customWidth="1"/>
+    <col min="7944" max="7944" width="10.7109375" style="13" customWidth="1"/>
+    <col min="7945" max="7945" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7946" max="7946" width="22.42578125" style="13" customWidth="1"/>
+    <col min="7947" max="8195" width="8.7109375" style="13"/>
+    <col min="8196" max="8196" width="10.7109375" style="13" customWidth="1"/>
+    <col min="8197" max="8197" width="11.7109375" style="13" customWidth="1"/>
+    <col min="8198" max="8198" width="13.42578125" style="13" customWidth="1"/>
+    <col min="8199" max="8199" width="18.28515625" style="13" customWidth="1"/>
+    <col min="8200" max="8200" width="10.7109375" style="13" customWidth="1"/>
+    <col min="8201" max="8201" width="12.7109375" style="13" customWidth="1"/>
+    <col min="8202" max="8202" width="22.42578125" style="13" customWidth="1"/>
+    <col min="8203" max="8451" width="8.7109375" style="13"/>
+    <col min="8452" max="8452" width="10.7109375" style="13" customWidth="1"/>
+    <col min="8453" max="8453" width="11.7109375" style="13" customWidth="1"/>
+    <col min="8454" max="8454" width="13.42578125" style="13" customWidth="1"/>
+    <col min="8455" max="8455" width="18.28515625" style="13" customWidth="1"/>
+    <col min="8456" max="8456" width="10.7109375" style="13" customWidth="1"/>
+    <col min="8457" max="8457" width="12.7109375" style="13" customWidth="1"/>
+    <col min="8458" max="8458" width="22.42578125" style="13" customWidth="1"/>
+    <col min="8459" max="8707" width="8.7109375" style="13"/>
+    <col min="8708" max="8708" width="10.7109375" style="13" customWidth="1"/>
+    <col min="8709" max="8709" width="11.7109375" style="13" customWidth="1"/>
+    <col min="8710" max="8710" width="13.42578125" style="13" customWidth="1"/>
+    <col min="8711" max="8711" width="18.28515625" style="13" customWidth="1"/>
+    <col min="8712" max="8712" width="10.7109375" style="13" customWidth="1"/>
+    <col min="8713" max="8713" width="12.7109375" style="13" customWidth="1"/>
+    <col min="8714" max="8714" width="22.42578125" style="13" customWidth="1"/>
+    <col min="8715" max="8963" width="8.7109375" style="13"/>
+    <col min="8964" max="8964" width="10.7109375" style="13" customWidth="1"/>
+    <col min="8965" max="8965" width="11.7109375" style="13" customWidth="1"/>
+    <col min="8966" max="8966" width="13.42578125" style="13" customWidth="1"/>
+    <col min="8967" max="8967" width="18.28515625" style="13" customWidth="1"/>
+    <col min="8968" max="8968" width="10.7109375" style="13" customWidth="1"/>
+    <col min="8969" max="8969" width="12.7109375" style="13" customWidth="1"/>
+    <col min="8970" max="8970" width="22.42578125" style="13" customWidth="1"/>
+    <col min="8971" max="9219" width="8.7109375" style="13"/>
+    <col min="9220" max="9220" width="10.7109375" style="13" customWidth="1"/>
+    <col min="9221" max="9221" width="11.7109375" style="13" customWidth="1"/>
+    <col min="9222" max="9222" width="13.42578125" style="13" customWidth="1"/>
+    <col min="9223" max="9223" width="18.28515625" style="13" customWidth="1"/>
+    <col min="9224" max="9224" width="10.7109375" style="13" customWidth="1"/>
+    <col min="9225" max="9225" width="12.7109375" style="13" customWidth="1"/>
+    <col min="9226" max="9226" width="22.42578125" style="13" customWidth="1"/>
+    <col min="9227" max="9475" width="8.7109375" style="13"/>
+    <col min="9476" max="9476" width="10.7109375" style="13" customWidth="1"/>
+    <col min="9477" max="9477" width="11.7109375" style="13" customWidth="1"/>
+    <col min="9478" max="9478" width="13.42578125" style="13" customWidth="1"/>
+    <col min="9479" max="9479" width="18.28515625" style="13" customWidth="1"/>
+    <col min="9480" max="9480" width="10.7109375" style="13" customWidth="1"/>
+    <col min="9481" max="9481" width="12.7109375" style="13" customWidth="1"/>
+    <col min="9482" max="9482" width="22.42578125" style="13" customWidth="1"/>
+    <col min="9483" max="9731" width="8.7109375" style="13"/>
+    <col min="9732" max="9732" width="10.7109375" style="13" customWidth="1"/>
+    <col min="9733" max="9733" width="11.7109375" style="13" customWidth="1"/>
+    <col min="9734" max="9734" width="13.42578125" style="13" customWidth="1"/>
+    <col min="9735" max="9735" width="18.28515625" style="13" customWidth="1"/>
+    <col min="9736" max="9736" width="10.7109375" style="13" customWidth="1"/>
+    <col min="9737" max="9737" width="12.7109375" style="13" customWidth="1"/>
+    <col min="9738" max="9738" width="22.42578125" style="13" customWidth="1"/>
+    <col min="9739" max="9987" width="8.7109375" style="13"/>
+    <col min="9988" max="9988" width="10.7109375" style="13" customWidth="1"/>
+    <col min="9989" max="9989" width="11.7109375" style="13" customWidth="1"/>
+    <col min="9990" max="9990" width="13.42578125" style="13" customWidth="1"/>
+    <col min="9991" max="9991" width="18.28515625" style="13" customWidth="1"/>
+    <col min="9992" max="9992" width="10.7109375" style="13" customWidth="1"/>
+    <col min="9993" max="9993" width="12.7109375" style="13" customWidth="1"/>
+    <col min="9994" max="9994" width="22.42578125" style="13" customWidth="1"/>
+    <col min="9995" max="10243" width="8.7109375" style="13"/>
+    <col min="10244" max="10244" width="10.7109375" style="13" customWidth="1"/>
+    <col min="10245" max="10245" width="11.7109375" style="13" customWidth="1"/>
+    <col min="10246" max="10246" width="13.42578125" style="13" customWidth="1"/>
+    <col min="10247" max="10247" width="18.28515625" style="13" customWidth="1"/>
+    <col min="10248" max="10248" width="10.7109375" style="13" customWidth="1"/>
+    <col min="10249" max="10249" width="12.7109375" style="13" customWidth="1"/>
+    <col min="10250" max="10250" width="22.42578125" style="13" customWidth="1"/>
+    <col min="10251" max="10499" width="8.7109375" style="13"/>
+    <col min="10500" max="10500" width="10.7109375" style="13" customWidth="1"/>
+    <col min="10501" max="10501" width="11.7109375" style="13" customWidth="1"/>
+    <col min="10502" max="10502" width="13.42578125" style="13" customWidth="1"/>
+    <col min="10503" max="10503" width="18.28515625" style="13" customWidth="1"/>
+    <col min="10504" max="10504" width="10.7109375" style="13" customWidth="1"/>
+    <col min="10505" max="10505" width="12.7109375" style="13" customWidth="1"/>
+    <col min="10506" max="10506" width="22.42578125" style="13" customWidth="1"/>
+    <col min="10507" max="10755" width="8.7109375" style="13"/>
+    <col min="10756" max="10756" width="10.7109375" style="13" customWidth="1"/>
+    <col min="10757" max="10757" width="11.7109375" style="13" customWidth="1"/>
+    <col min="10758" max="10758" width="13.42578125" style="13" customWidth="1"/>
+    <col min="10759" max="10759" width="18.28515625" style="13" customWidth="1"/>
+    <col min="10760" max="10760" width="10.7109375" style="13" customWidth="1"/>
+    <col min="10761" max="10761" width="12.7109375" style="13" customWidth="1"/>
+    <col min="10762" max="10762" width="22.42578125" style="13" customWidth="1"/>
+    <col min="10763" max="11011" width="8.7109375" style="13"/>
+    <col min="11012" max="11012" width="10.7109375" style="13" customWidth="1"/>
+    <col min="11013" max="11013" width="11.7109375" style="13" customWidth="1"/>
+    <col min="11014" max="11014" width="13.42578125" style="13" customWidth="1"/>
+    <col min="11015" max="11015" width="18.28515625" style="13" customWidth="1"/>
+    <col min="11016" max="11016" width="10.7109375" style="13" customWidth="1"/>
+    <col min="11017" max="11017" width="12.7109375" style="13" customWidth="1"/>
+    <col min="11018" max="11018" width="22.42578125" style="13" customWidth="1"/>
+    <col min="11019" max="11267" width="8.7109375" style="13"/>
+    <col min="11268" max="11268" width="10.7109375" style="13" customWidth="1"/>
+    <col min="11269" max="11269" width="11.7109375" style="13" customWidth="1"/>
+    <col min="11270" max="11270" width="13.42578125" style="13" customWidth="1"/>
+    <col min="11271" max="11271" width="18.28515625" style="13" customWidth="1"/>
+    <col min="11272" max="11272" width="10.7109375" style="13" customWidth="1"/>
+    <col min="11273" max="11273" width="12.7109375" style="13" customWidth="1"/>
+    <col min="11274" max="11274" width="22.42578125" style="13" customWidth="1"/>
+    <col min="11275" max="11523" width="8.7109375" style="13"/>
+    <col min="11524" max="11524" width="10.7109375" style="13" customWidth="1"/>
+    <col min="11525" max="11525" width="11.7109375" style="13" customWidth="1"/>
+    <col min="11526" max="11526" width="13.42578125" style="13" customWidth="1"/>
+    <col min="11527" max="11527" width="18.28515625" style="13" customWidth="1"/>
+    <col min="11528" max="11528" width="10.7109375" style="13" customWidth="1"/>
+    <col min="11529" max="11529" width="12.7109375" style="13" customWidth="1"/>
+    <col min="11530" max="11530" width="22.42578125" style="13" customWidth="1"/>
+    <col min="11531" max="11779" width="8.7109375" style="13"/>
+    <col min="11780" max="11780" width="10.7109375" style="13" customWidth="1"/>
+    <col min="11781" max="11781" width="11.7109375" style="13" customWidth="1"/>
+    <col min="11782" max="11782" width="13.42578125" style="13" customWidth="1"/>
+    <col min="11783" max="11783" width="18.28515625" style="13" customWidth="1"/>
+    <col min="11784" max="11784" width="10.7109375" style="13" customWidth="1"/>
+    <col min="11785" max="11785" width="12.7109375" style="13" customWidth="1"/>
+    <col min="11786" max="11786" width="22.42578125" style="13" customWidth="1"/>
+    <col min="11787" max="12035" width="8.7109375" style="13"/>
+    <col min="12036" max="12036" width="10.7109375" style="13" customWidth="1"/>
+    <col min="12037" max="12037" width="11.7109375" style="13" customWidth="1"/>
+    <col min="12038" max="12038" width="13.42578125" style="13" customWidth="1"/>
+    <col min="12039" max="12039" width="18.28515625" style="13" customWidth="1"/>
+    <col min="12040" max="12040" width="10.7109375" style="13" customWidth="1"/>
+    <col min="12041" max="12041" width="12.7109375" style="13" customWidth="1"/>
+    <col min="12042" max="12042" width="22.42578125" style="13" customWidth="1"/>
+    <col min="12043" max="12291" width="8.7109375" style="13"/>
+    <col min="12292" max="12292" width="10.7109375" style="13" customWidth="1"/>
+    <col min="12293" max="12293" width="11.7109375" style="13" customWidth="1"/>
+    <col min="12294" max="12294" width="13.42578125" style="13" customWidth="1"/>
+    <col min="12295" max="12295" width="18.28515625" style="13" customWidth="1"/>
+    <col min="12296" max="12296" width="10.7109375" style="13" customWidth="1"/>
+    <col min="12297" max="12297" width="12.7109375" style="13" customWidth="1"/>
+    <col min="12298" max="12298" width="22.42578125" style="13" customWidth="1"/>
+    <col min="12299" max="12547" width="8.7109375" style="13"/>
+    <col min="12548" max="12548" width="10.7109375" style="13" customWidth="1"/>
+    <col min="12549" max="12549" width="11.7109375" style="13" customWidth="1"/>
+    <col min="12550" max="12550" width="13.42578125" style="13" customWidth="1"/>
+    <col min="12551" max="12551" width="18.28515625" style="13" customWidth="1"/>
+    <col min="12552" max="12552" width="10.7109375" style="13" customWidth="1"/>
+    <col min="12553" max="12553" width="12.7109375" style="13" customWidth="1"/>
+    <col min="12554" max="12554" width="22.42578125" style="13" customWidth="1"/>
+    <col min="12555" max="12803" width="8.7109375" style="13"/>
+    <col min="12804" max="12804" width="10.7109375" style="13" customWidth="1"/>
+    <col min="12805" max="12805" width="11.7109375" style="13" customWidth="1"/>
+    <col min="12806" max="12806" width="13.42578125" style="13" customWidth="1"/>
+    <col min="12807" max="12807" width="18.28515625" style="13" customWidth="1"/>
+    <col min="12808" max="12808" width="10.7109375" style="13" customWidth="1"/>
+    <col min="12809" max="12809" width="12.7109375" style="13" customWidth="1"/>
+    <col min="12810" max="12810" width="22.42578125" style="13" customWidth="1"/>
+    <col min="12811" max="13059" width="8.7109375" style="13"/>
+    <col min="13060" max="13060" width="10.7109375" style="13" customWidth="1"/>
+    <col min="13061" max="13061" width="11.7109375" style="13" customWidth="1"/>
+    <col min="13062" max="13062" width="13.42578125" style="13" customWidth="1"/>
+    <col min="13063" max="13063" width="18.28515625" style="13" customWidth="1"/>
+    <col min="13064" max="13064" width="10.7109375" style="13" customWidth="1"/>
+    <col min="13065" max="13065" width="12.7109375" style="13" customWidth="1"/>
+    <col min="13066" max="13066" width="22.42578125" style="13" customWidth="1"/>
+    <col min="13067" max="13315" width="8.7109375" style="13"/>
+    <col min="13316" max="13316" width="10.7109375" style="13" customWidth="1"/>
+    <col min="13317" max="13317" width="11.7109375" style="13" customWidth="1"/>
+    <col min="13318" max="13318" width="13.42578125" style="13" customWidth="1"/>
+    <col min="13319" max="13319" width="18.28515625" style="13" customWidth="1"/>
+    <col min="13320" max="13320" width="10.7109375" style="13" customWidth="1"/>
+    <col min="13321" max="13321" width="12.7109375" style="13" customWidth="1"/>
+    <col min="13322" max="13322" width="22.42578125" style="13" customWidth="1"/>
+    <col min="13323" max="13571" width="8.7109375" style="13"/>
+    <col min="13572" max="13572" width="10.7109375" style="13" customWidth="1"/>
+    <col min="13573" max="13573" width="11.7109375" style="13" customWidth="1"/>
+    <col min="13574" max="13574" width="13.42578125" style="13" customWidth="1"/>
+    <col min="13575" max="13575" width="18.28515625" style="13" customWidth="1"/>
+    <col min="13576" max="13576" width="10.7109375" style="13" customWidth="1"/>
+    <col min="13577" max="13577" width="12.7109375" style="13" customWidth="1"/>
+    <col min="13578" max="13578" width="22.42578125" style="13" customWidth="1"/>
+    <col min="13579" max="13827" width="8.7109375" style="13"/>
+    <col min="13828" max="13828" width="10.7109375" style="13" customWidth="1"/>
+    <col min="13829" max="13829" width="11.7109375" style="13" customWidth="1"/>
+    <col min="13830" max="13830" width="13.42578125" style="13" customWidth="1"/>
+    <col min="13831" max="13831" width="18.28515625" style="13" customWidth="1"/>
+    <col min="13832" max="13832" width="10.7109375" style="13" customWidth="1"/>
+    <col min="13833" max="13833" width="12.7109375" style="13" customWidth="1"/>
+    <col min="13834" max="13834" width="22.42578125" style="13" customWidth="1"/>
+    <col min="13835" max="14083" width="8.7109375" style="13"/>
+    <col min="14084" max="14084" width="10.7109375" style="13" customWidth="1"/>
+    <col min="14085" max="14085" width="11.7109375" style="13" customWidth="1"/>
+    <col min="14086" max="14086" width="13.42578125" style="13" customWidth="1"/>
+    <col min="14087" max="14087" width="18.28515625" style="13" customWidth="1"/>
+    <col min="14088" max="14088" width="10.7109375" style="13" customWidth="1"/>
+    <col min="14089" max="14089" width="12.7109375" style="13" customWidth="1"/>
+    <col min="14090" max="14090" width="22.42578125" style="13" customWidth="1"/>
+    <col min="14091" max="14339" width="8.7109375" style="13"/>
+    <col min="14340" max="14340" width="10.7109375" style="13" customWidth="1"/>
+    <col min="14341" max="14341" width="11.7109375" style="13" customWidth="1"/>
+    <col min="14342" max="14342" width="13.42578125" style="13" customWidth="1"/>
+    <col min="14343" max="14343" width="18.28515625" style="13" customWidth="1"/>
+    <col min="14344" max="14344" width="10.7109375" style="13" customWidth="1"/>
+    <col min="14345" max="14345" width="12.7109375" style="13" customWidth="1"/>
+    <col min="14346" max="14346" width="22.42578125" style="13" customWidth="1"/>
+    <col min="14347" max="14595" width="8.7109375" style="13"/>
+    <col min="14596" max="14596" width="10.7109375" style="13" customWidth="1"/>
+    <col min="14597" max="14597" width="11.7109375" style="13" customWidth="1"/>
+    <col min="14598" max="14598" width="13.42578125" style="13" customWidth="1"/>
+    <col min="14599" max="14599" width="18.28515625" style="13" customWidth="1"/>
+    <col min="14600" max="14600" width="10.7109375" style="13" customWidth="1"/>
+    <col min="14601" max="14601" width="12.7109375" style="13" customWidth="1"/>
+    <col min="14602" max="14602" width="22.42578125" style="13" customWidth="1"/>
+    <col min="14603" max="14851" width="8.7109375" style="13"/>
+    <col min="14852" max="14852" width="10.7109375" style="13" customWidth="1"/>
+    <col min="14853" max="14853" width="11.7109375" style="13" customWidth="1"/>
+    <col min="14854" max="14854" width="13.42578125" style="13" customWidth="1"/>
+    <col min="14855" max="14855" width="18.28515625" style="13" customWidth="1"/>
+    <col min="14856" max="14856" width="10.7109375" style="13" customWidth="1"/>
+    <col min="14857" max="14857" width="12.7109375" style="13" customWidth="1"/>
+    <col min="14858" max="14858" width="22.42578125" style="13" customWidth="1"/>
+    <col min="14859" max="15107" width="8.7109375" style="13"/>
+    <col min="15108" max="15108" width="10.7109375" style="13" customWidth="1"/>
+    <col min="15109" max="15109" width="11.7109375" style="13" customWidth="1"/>
+    <col min="15110" max="15110" width="13.42578125" style="13" customWidth="1"/>
+    <col min="15111" max="15111" width="18.28515625" style="13" customWidth="1"/>
+    <col min="15112" max="15112" width="10.7109375" style="13" customWidth="1"/>
+    <col min="15113" max="15113" width="12.7109375" style="13" customWidth="1"/>
+    <col min="15114" max="15114" width="22.42578125" style="13" customWidth="1"/>
+    <col min="15115" max="15363" width="8.7109375" style="13"/>
+    <col min="15364" max="15364" width="10.7109375" style="13" customWidth="1"/>
+    <col min="15365" max="15365" width="11.7109375" style="13" customWidth="1"/>
+    <col min="15366" max="15366" width="13.42578125" style="13" customWidth="1"/>
+    <col min="15367" max="15367" width="18.28515625" style="13" customWidth="1"/>
+    <col min="15368" max="15368" width="10.7109375" style="13" customWidth="1"/>
+    <col min="15369" max="15369" width="12.7109375" style="13" customWidth="1"/>
+    <col min="15370" max="15370" width="22.42578125" style="13" customWidth="1"/>
+    <col min="15371" max="15619" width="8.7109375" style="13"/>
+    <col min="15620" max="15620" width="10.7109375" style="13" customWidth="1"/>
+    <col min="15621" max="15621" width="11.7109375" style="13" customWidth="1"/>
+    <col min="15622" max="15622" width="13.42578125" style="13" customWidth="1"/>
+    <col min="15623" max="15623" width="18.28515625" style="13" customWidth="1"/>
+    <col min="15624" max="15624" width="10.7109375" style="13" customWidth="1"/>
+    <col min="15625" max="15625" width="12.7109375" style="13" customWidth="1"/>
+    <col min="15626" max="15626" width="22.42578125" style="13" customWidth="1"/>
+    <col min="15627" max="15875" width="8.7109375" style="13"/>
+    <col min="15876" max="15876" width="10.7109375" style="13" customWidth="1"/>
+    <col min="15877" max="15877" width="11.7109375" style="13" customWidth="1"/>
+    <col min="15878" max="15878" width="13.42578125" style="13" customWidth="1"/>
+    <col min="15879" max="15879" width="18.28515625" style="13" customWidth="1"/>
+    <col min="15880" max="15880" width="10.7109375" style="13" customWidth="1"/>
+    <col min="15881" max="15881" width="12.7109375" style="13" customWidth="1"/>
+    <col min="15882" max="15882" width="22.42578125" style="13" customWidth="1"/>
+    <col min="15883" max="16131" width="8.7109375" style="13"/>
+    <col min="16132" max="16132" width="10.7109375" style="13" customWidth="1"/>
+    <col min="16133" max="16133" width="11.7109375" style="13" customWidth="1"/>
+    <col min="16134" max="16134" width="13.42578125" style="13" customWidth="1"/>
+    <col min="16135" max="16135" width="18.28515625" style="13" customWidth="1"/>
+    <col min="16136" max="16136" width="10.7109375" style="13" customWidth="1"/>
+    <col min="16137" max="16137" width="12.7109375" style="13" customWidth="1"/>
+    <col min="16138" max="16138" width="22.42578125" style="13" customWidth="1"/>
+    <col min="16139" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="3:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:14" ht="15" thickBot="1"/>
+    <row r="2" spans="3:14" ht="15" thickTop="1">
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -3011,87 +3010,87 @@
       <c r="M2" s="15"/>
       <c r="N2" s="16"/>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:14">
       <c r="C3" s="17"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:14">
       <c r="C4" s="17"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:14" ht="15" thickBot="1">
       <c r="C5" s="17"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="3:14" ht="25.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:14" ht="25.5" thickBot="1">
       <c r="C6" s="17"/>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14">
       <c r="C7" s="17"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:14" ht="15" thickBot="1">
       <c r="C8" s="17"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="3:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:14" ht="21" customHeight="1" thickBot="1">
       <c r="C9" s="17"/>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="3:14" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" ht="30.95">
       <c r="C10" s="17"/>
       <c r="E10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="3:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:14" ht="21" customHeight="1" thickBot="1">
       <c r="C11" s="17"/>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="3:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:14" ht="20.45" thickBot="1">
       <c r="C12" s="17"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
@@ -3100,7 +3099,7 @@
       <c r="I12" s="22"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="3:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" ht="38.25" customHeight="1">
       <c r="C13" s="17"/>
       <c r="E13" s="23" t="s">
         <v>6</v>
@@ -3108,21 +3107,21 @@
       <c r="F13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38" t="s">
+      <c r="H13" s="44"/>
+      <c r="I13" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="38" t="s">
+      <c r="J13" s="45"/>
+      <c r="K13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="40"/>
+      <c r="L13" s="46"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="3:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" ht="14.45" customHeight="1">
       <c r="C14" s="17"/>
       <c r="E14" s="11" t="s">
         <v>11</v>
@@ -3130,17 +3129,17 @@
       <c r="F14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="59"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="68"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="3:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" ht="14.45" customHeight="1">
       <c r="C15" s="17"/>
       <c r="E15" s="11" t="s">
         <v>14</v>
@@ -3148,49 +3147,49 @@
       <c r="F15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="59"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="68"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" ht="21" customHeight="1">
       <c r="C16" s="17"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="68"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:14">
       <c r="C17" s="17"/>
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="64"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="70"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:14" ht="18.75" customHeight="1">
       <c r="C18" s="17"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:14" ht="18.75" customHeight="1">
       <c r="C19" s="17"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:14" ht="15" thickBot="1">
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -3204,31 +3203,19 @@
       <c r="M20" s="28"/>
       <c r="N20" s="29"/>
     </row>
-    <row r="21" spans="3:14" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="53:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:14" ht="15" thickTop="1"/>
+    <row r="87" spans="53:53">
       <c r="BA87" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="53:53" x14ac:dyDescent="0.35">
+    <row r="88" spans="53:53">
       <c r="BA88" s="30" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
@@ -3237,6 +3224,18 @@
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="E11:L11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3251,27 +3250,27 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-    </row>
-    <row r="4" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="4" spans="1:6" ht="24.95">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="23.1">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="23.1">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -3325,7 +3324,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -3372,46 +3371,46 @@
       <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="16.453125" style="35" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.42578125" style="35" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.54296875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.453125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" style="1"/>
-    <col min="10" max="10" width="8.81640625"/>
-    <col min="11" max="18" width="9.1796875" style="1"/>
-    <col min="19" max="19" width="34.453125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="1"/>
+    <col min="5" max="5" width="45.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="8.85546875"/>
+    <col min="11" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="34.42578125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="68" t="s">
+    <row r="4" spans="2:19">
+      <c r="C4" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="S4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19">
       <c r="C5" s="34"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+    <row r="6" spans="2:19">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="S6" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="12.95">
       <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
@@ -3434,52 +3433,52 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="25.5" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="63">
         <v>1</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="63" t="s">
         <v>47</v>
       </c>
       <c r="S8" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19">
       <c r="B9" s="2"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
       <c r="S9" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19">
       <c r="B10" s="2"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
       <c r="S10" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19">
       <c r="B11" s="2"/>
       <c r="C11" s="31">
         <v>2</v>
@@ -3500,47 +3499,47 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19">
       <c r="B12" s="2"/>
-      <c r="C12" s="66">
+      <c r="C12" s="63">
         <v>3</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="63" t="s">
         <v>47</v>
       </c>
       <c r="S12" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19">
       <c r="B13" s="2"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
       <c r="S13" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19">
       <c r="B14" s="2"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-    </row>
-    <row r="15" spans="2:19" ht="25" x14ac:dyDescent="0.25">
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+    </row>
+    <row r="15" spans="2:19" ht="24.95">
       <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
@@ -3560,7 +3559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19">
       <c r="B16" s="2"/>
       <c r="C16" s="31">
         <v>2</v>
@@ -3578,7 +3577,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="2"/>
       <c r="C17" s="31">
         <v>3</v>
@@ -3596,7 +3595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="2"/>
       <c r="C18" s="31">
         <v>4</v>
@@ -3614,7 +3613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="2"/>
       <c r="C19" s="31">
         <v>5</v>
@@ -3632,7 +3631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="2"/>
       <c r="C20" s="31">
         <v>6</v>
@@ -3650,7 +3649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="24.95">
       <c r="B21" s="2" t="s">
         <v>80</v>
       </c>
@@ -3670,7 +3669,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="2"/>
       <c r="C22" s="31">
         <v>2</v>
@@ -3688,7 +3687,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="2"/>
       <c r="C23" s="31">
         <v>3</v>
@@ -3706,7 +3705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="2"/>
       <c r="C24" s="31">
         <v>4</v>
@@ -3724,7 +3723,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="2"/>
       <c r="C25" s="31">
         <v>5</v>
@@ -3742,7 +3741,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" s="2"/>
       <c r="C26" s="31">
         <v>6</v>
@@ -3760,22 +3759,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="F29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C4:F4"/>
@@ -3783,6 +3777,11 @@
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3807,45 +3806,45 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="10.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="35" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
+    <col min="8" max="10" width="10.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="35" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-    </row>
-    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+    <row r="2" spans="1:12" ht="15.6">
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A3" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="69"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="66"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="39">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="24.95">
       <c r="A7" s="2" t="s">
         <v>105</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="24.95">
       <c r="A8" s="2" t="s">
         <v>113</v>
       </c>
@@ -3957,9 +3956,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="24.95">
       <c r="A9" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>61</v>
@@ -3968,16 +3967,16 @@
         <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>47</v>
@@ -3987,33 +3986,33 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24.95">
+      <c r="A10" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L9" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="25" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="C10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>47</v>
@@ -4023,33 +4022,33 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24.95">
+      <c r="A11" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="25" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="C11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>47</v>
@@ -4059,33 +4058,33 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24.95">
+      <c r="A12" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="L11" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="25" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="B12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>47</v>
@@ -4095,33 +4094,33 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24.95">
+      <c r="A13" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="L12" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="25" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="D13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>47</v>
@@ -4131,33 +4130,33 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L13" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="24.95">
       <c r="A14" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>47</v>
@@ -4167,33 +4166,33 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24.95">
+      <c r="A15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L14" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>47</v>
@@ -4203,33 +4202,33 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="24.95">
       <c r="A16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>47</v>
@@ -4239,33 +4238,33 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="24.95">
       <c r="A17" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>47</v>
@@ -4275,33 +4274,33 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="24.95">
       <c r="A18" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>47</v>
@@ -4311,33 +4310,33 @@
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="24.95">
       <c r="A19" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>47</v>
@@ -4347,33 +4346,33 @@
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="24.95">
       <c r="A20" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>47</v>
@@ -4383,13 +4382,13 @@
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4403,7 +4402,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="31"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4417,7 +4416,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="31"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -4431,7 +4430,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="31"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -4445,7 +4444,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="31"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -4459,7 +4458,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="31"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4473,7 +4472,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="31"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4487,7 +4486,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="31"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4501,7 +4500,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="31"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4515,7 +4514,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="31"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4529,7 +4528,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="31"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4543,7 +4542,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4557,7 +4556,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="31"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4571,7 +4570,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="31"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4585,7 +4584,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="31"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4599,7 +4598,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="31"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4613,7 +4612,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="31"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4627,7 +4626,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="31"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4641,7 +4640,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="31"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4655,7 +4654,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="31"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4669,7 +4668,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="31"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4683,7 +4682,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="31"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4727,45 +4726,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118FC149-4F8D-417D-AFA1-FE0DDFF8B2A8}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="69"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A1" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1">
+      <c r="A2" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="39">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -4803,12 +4802,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="37.5">
       <c r="A5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>107</v>
@@ -4835,16 +4834,16 @@
       <c r="K5" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="L5" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="24.95">
       <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>115</v>
@@ -4853,7 +4852,7 @@
         <v>176</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>118</v>
@@ -4871,22 +4870,22 @@
       <c r="K6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="L6" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="24.95">
       <c r="A7" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>178</v>
+        <v>124</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>179</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4903,27 +4902,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="24.95">
       <c r="A8" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>47</v>
@@ -4933,33 +4932,33 @@
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="36" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L8" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="24.95">
       <c r="A9" s="36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>47</v>
@@ -4969,33 +4968,33 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="24.95">
       <c r="A10" s="36" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>47</v>
@@ -5005,33 +5004,33 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="24.95">
       <c r="A11" s="36" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>47</v>
@@ -5041,33 +5040,33 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="24.95">
       <c r="A12" s="36" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>47</v>
@@ -5077,33 +5076,33 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="24.95">
       <c r="A13" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>183</v>
+        <v>123</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>189</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>47</v>
@@ -5113,33 +5112,33 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="36" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L13" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="24.95">
       <c r="A14" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="D14" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>131</v>
-      </c>
       <c r="G14" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>47</v>
@@ -5149,33 +5148,33 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="24.95">
+      <c r="A15" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="C15" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="D15" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>139</v>
-      </c>
       <c r="G15" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>47</v>
@@ -5185,33 +5184,33 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="36" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L15" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="24.95">
       <c r="A16" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="C16" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>138</v>
-      </c>
       <c r="D16" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>47</v>
@@ -5221,33 +5220,33 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="24.95">
       <c r="A17" s="36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B17" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="36" t="s">
         <v>144</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>47</v>
@@ -5257,33 +5256,33 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="36" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="L17" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="36">
       <c r="A18" s="36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>47</v>
@@ -5293,13 +5292,13 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L18" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="1" customFormat="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5335,7 +5334,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.6"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5347,7 +5346,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.6"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5571,15 +5570,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" xsi:nil="true"/>
@@ -5590,40 +5580,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD3DD211-6F28-4706-86FE-F2F884288A88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
-    <ds:schemaRef ds:uri="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD3DD211-6F28-4706-86FE-F2F884288A88}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1740670A-878C-4DE1-A377-2852E06CC3BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73219BAC-8B22-4FD6-9480-2B5D785DE2CE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73219BAC-8B22-4FD6-9480-2B5D785DE2CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
-    <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1740670A-878C-4DE1-A377-2852E06CC3BB}"/>
 </file>